--- a/HW5_Output/Graphical_Solution.xlsx
+++ b/HW5_Output/Graphical_Solution.xlsx
@@ -399,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1096585328854612</v>
+        <v>-0.1031848867651064</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>0.001601601601601602</v>
       </c>
       <c r="C3">
-        <v>-0.109418540009792</v>
+        <v>-0.1029907059153555</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>0.003203203203203203</v>
       </c>
       <c r="C4">
-        <v>-0.1091824857048648</v>
+        <v>-0.1028004634445263</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>0.004804804804804805</v>
       </c>
       <c r="C5">
-        <v>-0.1089503453208039</v>
+        <v>-0.1026141347027432</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>0.006406406406406407</v>
       </c>
       <c r="C6">
-        <v>-0.1087220942077336</v>
+        <v>-0.1024316950401303</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>0.008008008008008008</v>
       </c>
       <c r="C7">
-        <v>-0.1084977077157782</v>
+        <v>-0.102253119806812</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>0.009609609609609611</v>
       </c>
       <c r="C8">
-        <v>-0.108277161195062</v>
+        <v>-0.1020783843529126</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>0.01121121121121121</v>
       </c>
       <c r="C9">
-        <v>-0.1080604299957093</v>
+        <v>-0.1019074640285563</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>0.01281281281281281</v>
       </c>
       <c r="C10">
-        <v>-0.1078474894678444</v>
+        <v>-0.1017403341838676</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>0.01441441441441441</v>
       </c>
       <c r="C11">
-        <v>-0.1076383149615915</v>
+        <v>-0.1015769701689706</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>0.01601601601601602</v>
       </c>
       <c r="C12">
-        <v>-0.1074328818270751</v>
+        <v>-0.1014173473339897</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>0.01761761761761762</v>
       </c>
       <c r="C13">
-        <v>-0.1072311654144193</v>
+        <v>-0.1012614410290491</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>0.01921921921921922</v>
       </c>
       <c r="C14">
-        <v>-0.1070331410737485</v>
+        <v>-0.1011092266042733</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>0.02082082082082082</v>
       </c>
       <c r="C15">
-        <v>-0.106838784155187</v>
+        <v>-0.1009606794097864</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>0.02242242242242242</v>
       </c>
       <c r="C16">
-        <v>-0.106648070008859</v>
+        <v>-0.1008157747957127</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>0.02402402402402402</v>
       </c>
       <c r="C17">
-        <v>-0.1064609739848889</v>
+        <v>-0.1006744881121767</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>0.02562562562562563</v>
       </c>
       <c r="C18">
-        <v>-0.106277471433401</v>
+        <v>-0.1005367947093025</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>0.02722722722722723</v>
       </c>
       <c r="C19">
-        <v>-0.1060975377045196</v>
+        <v>-0.1004026699372144</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>0.02882882882882883</v>
       </c>
       <c r="C20">
-        <v>-0.1059211481483689</v>
+        <v>-0.1002720891460368</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>0.03043043043043043</v>
       </c>
       <c r="C21">
-        <v>-0.1057482781150733</v>
+        <v>-0.100145027685894</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>0.03203203203203203</v>
       </c>
       <c r="C22">
-        <v>-0.1055789029547571</v>
+        <v>-0.1000214609069102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>0.03363363363363363</v>
       </c>
       <c r="C23">
-        <v>-0.1054129980175445</v>
+        <v>-0.0999013641592098</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>0.03523523523523524</v>
       </c>
       <c r="C24">
-        <v>-0.1052505386535599</v>
+        <v>-0.09978471279291702</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>0.03683683683683684</v>
       </c>
       <c r="C25">
-        <v>-0.1050915002129275</v>
+        <v>-0.09967148215815619</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>0.03843843843843844</v>
       </c>
       <c r="C26">
-        <v>-0.1049358580457717</v>
+        <v>-0.0995616476050516</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>0.04004004004004004</v>
       </c>
       <c r="C27">
-        <v>-0.1047835875022168</v>
+        <v>-0.09945518448372756</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>0.04164164164164164</v>
       </c>
       <c r="C28">
-        <v>-0.1046346639323869</v>
+        <v>-0.09935206814430834</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>0.04324324324324325</v>
       </c>
       <c r="C29">
-        <v>-0.1044890626864066</v>
+        <v>-0.09925227393691828</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>0.04484484484484485</v>
       </c>
       <c r="C30">
-        <v>-0.1043467591144</v>
+        <v>-0.09915577721168164</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>0.04644644644644645</v>
       </c>
       <c r="C31">
-        <v>-0.1042077285664914</v>
+        <v>-0.09906255331872275</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>0.04804804804804805</v>
       </c>
       <c r="C32">
-        <v>-0.1040719463928052</v>
+        <v>-0.09897257760816588</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>0.04964964964964965</v>
       </c>
       <c r="C33">
-        <v>-0.1039393879434656</v>
+        <v>-0.09888582543013535</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>0.05125125125125125</v>
       </c>
       <c r="C34">
-        <v>-0.1038100285685969</v>
+        <v>-0.09880227213475544</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>0.05285285285285286</v>
       </c>
       <c r="C35">
-        <v>-0.1036838436183235</v>
+        <v>-0.09872189307215046</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>0.05445445445445446</v>
       </c>
       <c r="C36">
-        <v>-0.1035608084427696</v>
+        <v>-0.0986446635924447</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>0.05605605605605606</v>
       </c>
       <c r="C37">
-        <v>-0.1034408983920596</v>
+        <v>-0.09857055904576247</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>0.05765765765765766</v>
       </c>
       <c r="C38">
-        <v>-0.1033240888163176</v>
+        <v>-0.09849955478222805</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>0.05925925925925926</v>
       </c>
       <c r="C39">
-        <v>-0.1032103550656681</v>
+        <v>-0.09843162615196575</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>0.06086086086086086</v>
       </c>
       <c r="C40">
-        <v>-0.1030996724902354</v>
+        <v>-0.09836674850509985</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>0.06246246246246247</v>
       </c>
       <c r="C41">
-        <v>-0.1029920164401436</v>
+        <v>-0.09830489719175468</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>0.06406406406406406</v>
       </c>
       <c r="C42">
-        <v>-0.1028873622655172</v>
+        <v>-0.09824604756205452</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>0.06566566566566567</v>
       </c>
       <c r="C43">
-        <v>-0.1027856853164804</v>
+        <v>-0.09819017496612367</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>0.06726726726726727</v>
       </c>
       <c r="C44">
-        <v>-0.1026869609431575</v>
+        <v>-0.09813725475408643</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>0.06886886886886887</v>
       </c>
       <c r="C45">
-        <v>-0.1025911644956728</v>
+        <v>-0.09808726227606708</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>0.07047047047047048</v>
       </c>
       <c r="C46">
-        <v>-0.1024982713241506</v>
+        <v>-0.09804017288218993</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>0.07207207207207207</v>
       </c>
       <c r="C47">
-        <v>-0.1024082567787152</v>
+        <v>-0.0979959619225793</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>0.07367367367367368</v>
       </c>
       <c r="C48">
-        <v>-0.102321096209491</v>
+        <v>-0.09795460474735945</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>0.07527527527527528</v>
       </c>
       <c r="C49">
-        <v>-0.1022367649666021</v>
+        <v>-0.0979160767066547</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>0.07687687687687689</v>
       </c>
       <c r="C50">
-        <v>-0.102155238400173</v>
+        <v>-0.09788035315058935</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>0.07847847847847848</v>
       </c>
       <c r="C51">
-        <v>-0.1020764918603278</v>
+        <v>-0.09784740942928769</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>0.08008008008008008</v>
       </c>
       <c r="C52">
-        <v>-0.102000500697191</v>
+        <v>-0.09781722089287401</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>0.08168168168168169</v>
       </c>
       <c r="C53">
-        <v>-0.1019272402608867</v>
+        <v>-0.09778976289147262</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>0.08328328328328329</v>
       </c>
       <c r="C54">
-        <v>-0.1018566859015394</v>
+        <v>-0.09776501077520781</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>0.0848848848848849</v>
       </c>
       <c r="C55">
-        <v>-0.1017888129692732</v>
+        <v>-0.09774293989420389</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>0.08648648648648649</v>
       </c>
       <c r="C56">
-        <v>-0.1017235968142125</v>
+        <v>-0.09772352559858516</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>0.08808808808808809</v>
       </c>
       <c r="C57">
-        <v>-0.1016610127864816</v>
+        <v>-0.09770674323847589</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>0.0896896896896897</v>
       </c>
       <c r="C58">
-        <v>-0.1016010362362048</v>
+        <v>-0.09769256816400042</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>0.09129129129129129</v>
       </c>
       <c r="C59">
-        <v>-0.1015436425135064</v>
+        <v>-0.097680975725283</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>0.0928928928928929</v>
       </c>
       <c r="C60">
-        <v>-0.1014888069685107</v>
+        <v>-0.09767194127244797</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>0.0944944944944945</v>
       </c>
       <c r="C61">
-        <v>-0.1014365049513419</v>
+        <v>-0.09766544015561961</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>0.0960960960960961</v>
       </c>
       <c r="C62">
-        <v>-0.1013867118121245</v>
+        <v>-0.0976614477249222</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>0.09769769769769771</v>
       </c>
       <c r="C63">
-        <v>-0.1013394029009825</v>
+        <v>-0.09765993933048008</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>0.0992992992992993</v>
       </c>
       <c r="C64">
-        <v>-0.1012945535680405</v>
+        <v>-0.09766089032241751</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>0.1009009009009009</v>
       </c>
       <c r="C65">
-        <v>-0.1012521391634227</v>
+        <v>-0.0976642760508588</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>0.1025025025025025</v>
       </c>
       <c r="C66">
-        <v>-0.1012121350372533</v>
+        <v>-0.09767007186592824</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>0.1041041041041041</v>
       </c>
       <c r="C67">
-        <v>-0.1011745165396566</v>
+        <v>-0.09767825311775016</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>0.1057057057057057</v>
       </c>
       <c r="C68">
-        <v>-0.1011392590207571</v>
+        <v>-0.09768879515644882</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>0.1073073073073073</v>
       </c>
       <c r="C69">
-        <v>-0.1011063378306789</v>
+        <v>-0.09770167333214855</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>0.1089089089089089</v>
       </c>
       <c r="C70">
-        <v>-0.1010757283195464</v>
+        <v>-0.09771686299497361</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>0.1105105105105105</v>
       </c>
       <c r="C71">
-        <v>-0.1010474058374838</v>
+        <v>-0.09773433949504833</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>0.1121121121121121</v>
       </c>
       <c r="C72">
-        <v>-0.1010213457346155</v>
+        <v>-0.097754078182497</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>0.1137137137137137</v>
       </c>
       <c r="C73">
-        <v>-0.1009975233610657</v>
+        <v>-0.0977760544074439</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>0.1153153153153153</v>
       </c>
       <c r="C74">
-        <v>-0.1009759140669588</v>
+        <v>-0.09780024352001336</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>0.1169169169169169</v>
       </c>
       <c r="C75">
-        <v>-0.100956493202419</v>
+        <v>-0.09782662087032964</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>0.1185185185185185</v>
       </c>
       <c r="C76">
-        <v>-0.1009392361175707</v>
+        <v>-0.09785516180851708</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>0.1201201201201201</v>
       </c>
       <c r="C77">
-        <v>-0.1009241181625381</v>
+        <v>-0.09788584168469994</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>0.1217217217217217</v>
       </c>
       <c r="C78">
-        <v>-0.1009111146874456</v>
+        <v>-0.09791863584900254</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>0.1233233233233233</v>
       </c>
       <c r="C79">
-        <v>-0.1009002010424174</v>
+        <v>-0.09795351965154918</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>0.1249249249249249</v>
       </c>
       <c r="C80">
-        <v>-0.1008913525775779</v>
+        <v>-0.09799046844246413</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>0.1265265265265265</v>
       </c>
       <c r="C81">
-        <v>-0.1008845446430512</v>
+        <v>-0.09802945757187173</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>0.1281281281281281</v>
       </c>
       <c r="C82">
-        <v>-0.1008797525889619</v>
+        <v>-0.09807046238989624</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>0.1297297297297297</v>
       </c>
       <c r="C83">
-        <v>-0.100876951765434</v>
+        <v>-0.09811345824666198</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>0.1313313313313313</v>
       </c>
       <c r="C84">
-        <v>-0.100876117522592</v>
+        <v>-0.09815842049229323</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>0.1329329329329329</v>
       </c>
       <c r="C85">
-        <v>-0.1008772252105601</v>
+        <v>-0.09820532447691432</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>0.1345345345345345</v>
       </c>
       <c r="C86">
-        <v>-0.1008802501794627</v>
+        <v>-0.09825414555064951</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>0.1361361361361361</v>
       </c>
       <c r="C87">
-        <v>-0.1008851677794239</v>
+        <v>-0.09830485906362313</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>0.1377377377377377</v>
       </c>
       <c r="C88">
-        <v>-0.1008919533605682</v>
+        <v>-0.09835744036595945</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>0.1393393393393393</v>
       </c>
       <c r="C89">
-        <v>-0.1009005822730198</v>
+        <v>-0.09841186480778277</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>0.140940940940941</v>
       </c>
       <c r="C90">
-        <v>-0.100911029866903</v>
+        <v>-0.09846810773921742</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>0.1425425425425426</v>
       </c>
       <c r="C91">
-        <v>-0.1009232714923422</v>
+        <v>-0.09852614451038766</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>0.1441441441441441</v>
       </c>
       <c r="C92">
-        <v>-0.1009372824994615</v>
+        <v>-0.09858595047141781</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>0.1457457457457458</v>
       </c>
       <c r="C93">
-        <v>-0.1009530382383854</v>
+        <v>-0.09864750097243218</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>0.1473473473473474</v>
       </c>
       <c r="C94">
-        <v>-0.1009705140592381</v>
+        <v>-0.09871077136355502</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>0.1489489489489489</v>
       </c>
       <c r="C95">
-        <v>-0.1009896853121439</v>
+        <v>-0.09877573699491068</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>0.1505505505505506</v>
       </c>
       <c r="C96">
-        <v>-0.1010105273472271</v>
+        <v>-0.09884237321662342</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>0.1521521521521522</v>
       </c>
       <c r="C97">
-        <v>-0.1010330155146119</v>
+        <v>-0.09891065537881757</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>0.1537537537537538</v>
       </c>
       <c r="C98">
-        <v>-0.1010571251644228</v>
+        <v>-0.0989805588316174</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>0.1553553553553554</v>
       </c>
       <c r="C99">
-        <v>-0.101082831646784</v>
+        <v>-0.09905205892514722</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>0.156956956956957</v>
       </c>
       <c r="C100">
-        <v>-0.1011101103118198</v>
+        <v>-0.09912513100953133</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>0.1585585585585586</v>
       </c>
       <c r="C101">
-        <v>-0.1011389365096545</v>
+        <v>-0.09919975043489401</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>0.1601601601601602</v>
       </c>
       <c r="C102">
-        <v>-0.1011692855904124</v>
+        <v>-0.0992758925513596</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1510,7 +1510,7 @@
         <v>0.1617617617617618</v>
       </c>
       <c r="C103">
-        <v>-0.1012011329042177</v>
+        <v>-0.09935353270905235</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>0.1633633633633634</v>
       </c>
       <c r="C104">
-        <v>-0.1012344538011949</v>
+        <v>-0.0994326462580966</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1532,7 +1532,7 @@
         <v>0.164964964964965</v>
       </c>
       <c r="C105">
-        <v>-0.1012692236314681</v>
+        <v>-0.0995132085486166</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>0.1665665665665666</v>
       </c>
       <c r="C106">
-        <v>-0.1013054177451618</v>
+        <v>-0.09959519493073669</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>0.1681681681681682</v>
       </c>
       <c r="C107">
-        <v>-0.1013430114924</v>
+        <v>-0.09967858075458115</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1565,7 +1565,7 @@
         <v>0.1697697697697698</v>
       </c>
       <c r="C108">
-        <v>-0.1013819802233073</v>
+        <v>-0.09976334137027429</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1576,7 +1576,7 @@
         <v>0.1713713713713714</v>
       </c>
       <c r="C109">
-        <v>-0.1014222992880079</v>
+        <v>-0.09984945212794037</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1587,7 +1587,7 @@
         <v>0.172972972972973</v>
       </c>
       <c r="C110">
-        <v>-0.101463944036626</v>
+        <v>-0.09993688837770373</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1598,7 +1598,7 @@
         <v>0.1745745745745746</v>
       </c>
       <c r="C111">
-        <v>-0.101506889819286</v>
+        <v>-0.1000256254696887</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1609,7 +1609,7 @@
         <v>0.1761761761761762</v>
       </c>
       <c r="C112">
-        <v>-0.1015511119861122</v>
+        <v>-0.1001156387540195</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1620,7 +1620,7 @@
         <v>0.1777777777777778</v>
       </c>
       <c r="C113">
-        <v>-0.1015965858872289</v>
+        <v>-0.1002069035808204</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>0.1793793793793794</v>
       </c>
       <c r="C114">
-        <v>-0.1016432868727603</v>
+        <v>-0.1002993953002158</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1642,7 +1642,7 @@
         <v>0.180980980980981</v>
       </c>
       <c r="C115">
-        <v>-0.1016911902928308</v>
+        <v>-0.10039308926233</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1653,7 +1653,7 @@
         <v>0.1825825825825826</v>
       </c>
       <c r="C116">
-        <v>-0.1017402714975646</v>
+        <v>-0.1004879608172872</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1664,7 +1664,7 @@
         <v>0.1841841841841842</v>
       </c>
       <c r="C117">
-        <v>-0.1017905058370861</v>
+        <v>-0.1005839853152117</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>0.1857857857857858</v>
       </c>
       <c r="C118">
-        <v>-0.1018418686615196</v>
+        <v>-0.1006811381062279</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1686,7 +1686,7 @@
         <v>0.1873873873873874</v>
       </c>
       <c r="C119">
-        <v>-0.1018943353209893</v>
+        <v>-0.1007793945404601</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>0.188988988988989</v>
       </c>
       <c r="C120">
-        <v>-0.1019478811656196</v>
+        <v>-0.1008787299680325</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1708,7 +1708,7 @@
         <v>0.1905905905905906</v>
       </c>
       <c r="C121">
-        <v>-0.1020024815455347</v>
+        <v>-0.1009791197390695</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1719,7 +1719,7 @@
         <v>0.1921921921921922</v>
       </c>
       <c r="C122">
-        <v>-0.102058111810859</v>
+        <v>-0.1010805392036952</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1730,7 +1730,7 @@
         <v>0.1937937937937938</v>
       </c>
       <c r="C123">
-        <v>-0.1021147473117167</v>
+        <v>-0.1011829637120342</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>0.1953953953953954</v>
       </c>
       <c r="C124">
-        <v>-0.1021723633982322</v>
+        <v>-0.1012863686142105</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1752,7 +1752,7 @@
         <v>0.196996996996997</v>
       </c>
       <c r="C125">
-        <v>-0.1022309354205297</v>
+        <v>-0.1013907292603486</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>0.1985985985985986</v>
       </c>
       <c r="C126">
-        <v>-0.1022904387287335</v>
+        <v>-0.1014960210005727</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1774,7 +1774,7 @@
         <v>0.2002002002002002</v>
       </c>
       <c r="C127">
-        <v>-0.102350848672968</v>
+        <v>-0.1016022191850072</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1785,7 +1785,7 @@
         <v>0.2018018018018018</v>
       </c>
       <c r="C128">
-        <v>-0.1024121406033574</v>
+        <v>-0.1017092991637763</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>0.2034034034034034</v>
       </c>
       <c r="C129">
-        <v>-0.1024742898700261</v>
+        <v>-0.1018172362870043</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1807,7 +1807,7 @@
         <v>0.205005005005005</v>
       </c>
       <c r="C130">
-        <v>-0.1025372718230983</v>
+        <v>-0.1019260059048155</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1818,7 +1818,7 @@
         <v>0.2066066066066066</v>
       </c>
       <c r="C131">
-        <v>-0.1026010618126983</v>
+        <v>-0.1020355833673343</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1829,7 +1829,7 @@
         <v>0.2082082082082082</v>
       </c>
       <c r="C132">
-        <v>-0.1026656351889505</v>
+        <v>-0.1021459440246849</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>0.2098098098098098</v>
       </c>
       <c r="C133">
-        <v>-0.102730967301979</v>
+        <v>-0.1022570632269915</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1851,7 +1851,7 @@
         <v>0.2114114114114114</v>
       </c>
       <c r="C134">
-        <v>-0.1027970335019083</v>
+        <v>-0.1023689163243786</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1862,7 +1862,7 @@
         <v>0.213013013013013</v>
       </c>
       <c r="C135">
-        <v>-0.1028638091388627</v>
+        <v>-0.1024814786669705</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>0.2146146146146146</v>
       </c>
       <c r="C136">
-        <v>-0.1029312695629663</v>
+        <v>-0.1025947256048913</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1884,7 +1884,7 @@
         <v>0.2162162162162162</v>
       </c>
       <c r="C137">
-        <v>-0.1029993901243436</v>
+        <v>-0.1027086324882654</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1895,7 +1895,7 @@
         <v>0.2178178178178178</v>
       </c>
       <c r="C138">
-        <v>-0.1030681461731188</v>
+        <v>-0.1028231746672172</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1906,7 +1906,7 @@
         <v>0.2194194194194194</v>
       </c>
       <c r="C139">
-        <v>-0.1031375130594162</v>
+        <v>-0.1029383274918708</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>0.221021021021021</v>
       </c>
       <c r="C140">
-        <v>-0.1032074661333601</v>
+        <v>-0.1030540663123507</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1928,7 +1928,7 @@
         <v>0.2226226226226226</v>
       </c>
       <c r="C141">
-        <v>-0.1032779807450748</v>
+        <v>-0.103170366478781</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1939,7 +1939,7 @@
         <v>0.2242242242242242</v>
       </c>
       <c r="C142">
-        <v>-0.1033490322446846</v>
+        <v>-0.1032872033412861</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>0.2258258258258258</v>
       </c>
       <c r="C143">
-        <v>-0.1034205959823138</v>
+        <v>-0.1034045522499904</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1961,7 +1961,7 @@
         <v>0.2274274274274274</v>
       </c>
       <c r="C144">
-        <v>-0.1034926473080868</v>
+        <v>-0.103522388555018</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1972,7 +1972,7 @@
         <v>0.2290290290290291</v>
       </c>
       <c r="C145">
-        <v>-0.1035651615721277</v>
+        <v>-0.1036406876064933</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>0.2306306306306306</v>
       </c>
       <c r="C146">
-        <v>-0.1036381141245609</v>
+        <v>-0.1037594247545407</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1994,7 +1994,7 @@
         <v>0.2322322322322322</v>
       </c>
       <c r="C147">
-        <v>-0.1037114803155108</v>
+        <v>-0.1038785753492843</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2005,7 +2005,7 @@
         <v>0.2338338338338339</v>
       </c>
       <c r="C148">
-        <v>-0.1037852354951015</v>
+        <v>-0.1039981147408484</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2016,7 +2016,7 @@
         <v>0.2354354354354354</v>
       </c>
       <c r="C149">
-        <v>-0.1038593550134574</v>
+        <v>-0.1041180182793575</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2027,7 +2027,7 @@
         <v>0.237037037037037</v>
       </c>
       <c r="C150">
-        <v>-0.1039338142207028</v>
+        <v>-0.1042382613149358</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>0.2386386386386387</v>
       </c>
       <c r="C151">
-        <v>-0.104008588466962</v>
+        <v>-0.1043588191977075</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2049,7 +2049,7 @@
         <v>0.2402402402402402</v>
       </c>
       <c r="C152">
-        <v>-0.1040836531023592</v>
+        <v>-0.104479667277797</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>0.2418418418418418</v>
       </c>
       <c r="C153">
-        <v>-0.1041589834770189</v>
+        <v>-0.1046007809053286</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2071,7 +2071,7 @@
         <v>0.2434434434434435</v>
       </c>
       <c r="C154">
-        <v>-0.1042345549410652</v>
+        <v>-0.1047221354304265</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>0.2450450450450451</v>
       </c>
       <c r="C155">
-        <v>-0.1043103428446226</v>
+        <v>-0.1048437062032151</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2093,7 +2093,7 @@
         <v>0.2466466466466467</v>
       </c>
       <c r="C156">
-        <v>-0.1043863225378152</v>
+        <v>-0.1049654685738187</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2104,7 +2104,7 @@
         <v>0.2482482482482483</v>
       </c>
       <c r="C157">
-        <v>-0.1044624693707673</v>
+        <v>-0.1050873978923616</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2115,7 +2115,7 @@
         <v>0.2498498498498499</v>
       </c>
       <c r="C158">
-        <v>-0.1045387586936034</v>
+        <v>-0.105209469508968</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>0.2514514514514515</v>
       </c>
       <c r="C159">
-        <v>-0.1046151658564476</v>
+        <v>-0.1053316587737623</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2137,7 +2137,7 @@
         <v>0.2530530530530531</v>
       </c>
       <c r="C160">
-        <v>-0.1046916662094243</v>
+        <v>-0.1054539410368687</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2148,7 +2148,7 @@
         <v>0.2546546546546546</v>
       </c>
       <c r="C161">
-        <v>-0.1047682351026577</v>
+        <v>-0.1055762916484116</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>0.2562562562562563</v>
       </c>
       <c r="C162">
-        <v>-0.1048448478862722</v>
+        <v>-0.1056986859585153</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>0.2578578578578579</v>
       </c>
       <c r="C163">
-        <v>-0.1049214799103921</v>
+        <v>-0.105821099317304</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2181,7 +2181,7 @@
         <v>0.2594594594594595</v>
       </c>
       <c r="C164">
-        <v>-0.1049981065251417</v>
+        <v>-0.105943507074902</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>0.2610610610610611</v>
       </c>
       <c r="C165">
-        <v>-0.1050747030806452</v>
+        <v>-0.1060658845814337</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2203,7 +2203,7 @@
         <v>0.2626626626626627</v>
       </c>
       <c r="C166">
-        <v>-0.1051512449270269</v>
+        <v>-0.1061882071870234</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>0.2642642642642643</v>
       </c>
       <c r="C167">
-        <v>-0.1052277074144112</v>
+        <v>-0.1063104502417953</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>0.2658658658658659</v>
       </c>
       <c r="C168">
-        <v>-0.1053040658929224</v>
+        <v>-0.1064325890958737</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>0.2674674674674675</v>
       </c>
       <c r="C169">
-        <v>-0.1053802957126847</v>
+        <v>-0.106554599099383</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>0.2690690690690691</v>
       </c>
       <c r="C170">
-        <v>-0.1054563722238225</v>
+        <v>-0.1066764556024474</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>0.2706706706706707</v>
       </c>
       <c r="C171">
-        <v>-0.10553227077646</v>
+        <v>-0.1067981339551912</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>0.2722722722722723</v>
       </c>
       <c r="C172">
-        <v>-0.1056079667207215</v>
+        <v>-0.1069196095077388</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>0.2738738738738739</v>
       </c>
       <c r="C173">
-        <v>-0.1056834354067314</v>
+        <v>-0.1070408576102145</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>0.2754754754754755</v>
       </c>
       <c r="C174">
-        <v>-0.1057586521846139</v>
+        <v>-0.1071618536127424</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>0.2770770770770771</v>
       </c>
       <c r="C175">
-        <v>-0.1058335924044934</v>
+        <v>-0.107282572865447</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>0.2786786786786787</v>
       </c>
       <c r="C176">
-        <v>-0.1059082314164941</v>
+        <v>-0.1074029907184525</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>0.2802802802802803</v>
       </c>
       <c r="C177">
-        <v>-0.1059825445707403</v>
+        <v>-0.1075230825218832</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>0.2818818818818819</v>
       </c>
       <c r="C178">
-        <v>-0.1060565072173563</v>
+        <v>-0.1076428236258634</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>0.2834834834834835</v>
       </c>
       <c r="C179">
-        <v>-0.1061300947064665</v>
+        <v>-0.1077621893805175</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>0.2850850850850851</v>
       </c>
       <c r="C180">
-        <v>-0.1062032823881952</v>
+        <v>-0.1078811551359697</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>0.2866866866866867</v>
       </c>
       <c r="C181">
-        <v>-0.1062760456126665</v>
+        <v>-0.1079996962423443</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>0.2882882882882883</v>
       </c>
       <c r="C182">
-        <v>-0.1063483597300049</v>
+        <v>-0.1081177880497656</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>0.2898898898898899</v>
       </c>
       <c r="C183">
-        <v>-0.1064202000903345</v>
+        <v>-0.1082354059083579</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>0.2914914914914915</v>
       </c>
       <c r="C184">
-        <v>-0.1064915420437798</v>
+        <v>-0.1083525251682455</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>0.2930930930930931</v>
       </c>
       <c r="C185">
-        <v>-0.1065623609404651</v>
+        <v>-0.1084691211795527</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>0.2946946946946947</v>
       </c>
       <c r="C186">
-        <v>-0.1066326321305145</v>
+        <v>-0.1085851692924039</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>0.2962962962962963</v>
       </c>
       <c r="C187">
-        <v>-0.1067023309640524</v>
+        <v>-0.1087006448569232</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>0.2978978978978979</v>
       </c>
       <c r="C188">
-        <v>-0.1067714327912032</v>
+        <v>-0.1088155232232351</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>0.2994994994994995</v>
       </c>
       <c r="C189">
-        <v>-0.106839912962091</v>
+        <v>-0.1089297797414637</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>0.3011011011011011</v>
       </c>
       <c r="C190">
-        <v>-0.1069077468268403</v>
+        <v>-0.1090433897617334</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>0.3027027027027027</v>
       </c>
       <c r="C191">
-        <v>-0.1069749097355752</v>
+        <v>-0.1091563286341685</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>0.3043043043043043</v>
       </c>
       <c r="C192">
-        <v>-0.1070413770384202</v>
+        <v>-0.1092685717088934</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2500,7 +2500,7 @@
         <v>0.3059059059059059</v>
       </c>
       <c r="C193">
-        <v>-0.1071071240854995</v>
+        <v>-0.1093800943360322</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>0.3075075075075075</v>
       </c>
       <c r="C194">
-        <v>-0.1071721262269373</v>
+        <v>-0.1094908718657092</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2522,7 +2522,7 @@
         <v>0.3091091091091091</v>
       </c>
       <c r="C195">
-        <v>-0.1072363588128581</v>
+        <v>-0.1096008796480489</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>0.3107107107107107</v>
       </c>
       <c r="C196">
-        <v>-0.107299797193386</v>
+        <v>-0.1097100930331755</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2544,7 +2544,7 @@
         <v>0.3123123123123123</v>
       </c>
       <c r="C197">
-        <v>-0.1073624167186455</v>
+        <v>-0.1098184873712132</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2555,7 +2555,7 @@
         <v>0.3139139139139139</v>
       </c>
       <c r="C198">
-        <v>-0.1074241927387607</v>
+        <v>-0.1099260380122864</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2566,7 +2566,7 @@
         <v>0.3155155155155155</v>
       </c>
       <c r="C199">
-        <v>-0.107485100603856</v>
+        <v>-0.1100327203065194</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2577,7 +2577,7 @@
         <v>0.3171171171171172</v>
       </c>
       <c r="C200">
-        <v>-0.1075451156640557</v>
+        <v>-0.1101385096040365</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2588,7 +2588,7 @@
         <v>0.3187187187187187</v>
       </c>
       <c r="C201">
-        <v>-0.1076042132694841</v>
+        <v>-0.1102433812549619</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2599,7 +2599,7 @@
         <v>0.3203203203203203</v>
       </c>
       <c r="C202">
-        <v>-0.1076623687702654</v>
+        <v>-0.11034731060942</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2610,7 +2610,7 @@
         <v>0.3219219219219219</v>
       </c>
       <c r="C203">
-        <v>-0.107719557516524</v>
+        <v>-0.1104502730175351</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>0.3235235235235235</v>
       </c>
       <c r="C204">
-        <v>-0.1077757548583843</v>
+        <v>-0.1105522438294315</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2632,7 +2632,7 @@
         <v>0.3251251251251251</v>
       </c>
       <c r="C205">
-        <v>-0.1078309361459703</v>
+        <v>-0.1106531983952334</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2643,7 +2643,7 @@
         <v>0.3267267267267268</v>
       </c>
       <c r="C206">
-        <v>-0.1078850767294066</v>
+        <v>-0.1107531120650651</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>0.3283283283283284</v>
       </c>
       <c r="C207">
-        <v>-0.1079381519588173</v>
+        <v>-0.1108519601890511</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2665,7 +2665,7 @@
         <v>0.3299299299299299</v>
       </c>
       <c r="C208">
-        <v>-0.1079901371843268</v>
+        <v>-0.1109497181173154</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2676,7 +2676,7 @@
         <v>0.3315315315315315</v>
       </c>
       <c r="C209">
-        <v>-0.1080410077560593</v>
+        <v>-0.1110463611999826</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2687,7 +2687,7 @@
         <v>0.3331331331331331</v>
       </c>
       <c r="C210">
-        <v>-0.1080907390241393</v>
+        <v>-0.1111418647871768</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2698,7 +2698,7 @@
         <v>0.3347347347347348</v>
       </c>
       <c r="C211">
-        <v>-0.1081393063386908</v>
+        <v>-0.1112362042290223</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2709,7 +2709,7 @@
         <v>0.3363363363363364</v>
       </c>
       <c r="C212">
-        <v>-0.1081866850498384</v>
+        <v>-0.1113293548756435</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>0.337937937937938</v>
       </c>
       <c r="C213">
-        <v>-0.1082328505077061</v>
+        <v>-0.1114212920771646</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>0.3395395395395396</v>
       </c>
       <c r="C214">
-        <v>-0.1082777780624185</v>
+        <v>-0.11151199118371</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2742,7 +2742,7 @@
         <v>0.3411411411411411</v>
       </c>
       <c r="C215">
-        <v>-0.1083214430640997</v>
+        <v>-0.1116014275454039</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2753,7 +2753,7 @@
         <v>0.3427427427427427</v>
       </c>
       <c r="C216">
-        <v>-0.108363820862874</v>
+        <v>-0.1116895765123707</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2764,7 +2764,7 @@
         <v>0.3443443443443444</v>
       </c>
       <c r="C217">
-        <v>-0.1084048868088658</v>
+        <v>-0.1117764134347346</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>0.345945945945946</v>
       </c>
       <c r="C218">
-        <v>-0.1084446162521993</v>
+        <v>-0.11186191366262</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>0.3475475475475476</v>
       </c>
       <c r="C219">
-        <v>-0.1084829845429989</v>
+        <v>-0.111946052546151</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2797,7 +2797,7 @@
         <v>0.3491491491491492</v>
       </c>
       <c r="C220">
-        <v>-0.1085199670313888</v>
+        <v>-0.1120288054354521</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2808,7 +2808,7 @@
         <v>0.3507507507507507</v>
       </c>
       <c r="C221">
-        <v>-0.1085555390674934</v>
+        <v>-0.1121101476806476</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2819,7 +2819,7 @@
         <v>0.3523523523523523</v>
       </c>
       <c r="C222">
-        <v>-0.1085896760014369</v>
+        <v>-0.1121900546318616</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>0.353953953953954</v>
       </c>
       <c r="C223">
-        <v>-0.1086223531833436</v>
+        <v>-0.1122685016392186</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2841,7 +2841,7 @@
         <v>0.3555555555555556</v>
       </c>
       <c r="C224">
-        <v>-0.1086535459633379</v>
+        <v>-0.1123454640528428</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2852,7 +2852,7 @@
         <v>0.3571571571571572</v>
       </c>
       <c r="C225">
-        <v>-0.108683229691544</v>
+        <v>-0.1124209172228585</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2863,7 +2863,7 @@
         <v>0.3587587587587588</v>
       </c>
       <c r="C226">
-        <v>-0.1087113797180862</v>
+        <v>-0.1124948364993901</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2874,7 +2874,7 @@
         <v>0.3603603603603604</v>
       </c>
       <c r="C227">
-        <v>-0.1087379713930889</v>
+        <v>-0.1125671972325618</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2885,7 +2885,7 @@
         <v>0.361961961961962</v>
       </c>
       <c r="C228">
-        <v>-0.1087629800666762</v>
+        <v>-0.1126379747724978</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2896,7 +2896,7 @@
         <v>0.3635635635635636</v>
       </c>
       <c r="C229">
-        <v>-0.1087863810889726</v>
+        <v>-0.1127071444693226</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>0.3651651651651652</v>
       </c>
       <c r="C230">
-        <v>-0.1088081498101023</v>
+        <v>-0.1127746816731604</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2918,7 +2918,7 @@
         <v>0.3667667667667668</v>
       </c>
       <c r="C231">
-        <v>-0.1088282615801897</v>
+        <v>-0.1128405617341355</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2929,7 +2929,7 @@
         <v>0.3683683683683684</v>
       </c>
       <c r="C232">
-        <v>-0.1088466917493589</v>
+        <v>-0.1129047600023723</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2940,7 +2940,7 @@
         <v>0.36996996996997</v>
       </c>
       <c r="C233">
-        <v>-0.1088634156677344</v>
+        <v>-0.1129672518279949</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2951,7 +2951,7 @@
         <v>0.3715715715715716</v>
       </c>
       <c r="C234">
-        <v>-0.1088784086854403</v>
+        <v>-0.1130280125611277</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2962,7 +2962,7 @@
         <v>0.3731731731731732</v>
       </c>
       <c r="C235">
-        <v>-0.1088916461526011</v>
+        <v>-0.113087017551895</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2973,7 +2973,7 @@
         <v>0.3747747747747748</v>
       </c>
       <c r="C236">
-        <v>-0.108903103419341</v>
+        <v>-0.1131442421504212</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2984,7 +2984,7 @@
         <v>0.3763763763763764</v>
       </c>
       <c r="C237">
-        <v>-0.1089127558357843</v>
+        <v>-0.1131996617068304</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2995,7 +2995,7 @@
         <v>0.377977977977978</v>
       </c>
       <c r="C238">
-        <v>-0.1089205787520553</v>
+        <v>-0.113253251571247</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3006,7 +3006,7 @@
         <v>0.3795795795795796</v>
       </c>
       <c r="C239">
-        <v>-0.1089265475182783</v>
+        <v>-0.1133049870937953</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3017,7 +3017,7 @@
         <v>0.3811811811811812</v>
       </c>
       <c r="C240">
-        <v>-0.1089306374845776</v>
+        <v>-0.1133548436245995</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>0.3827827827827828</v>
       </c>
       <c r="C241">
-        <v>-0.1089328240010775</v>
+        <v>-0.1134027965137841</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3039,7 +3039,7 @@
         <v>0.3843843843843844</v>
       </c>
       <c r="C242">
-        <v>-0.1089330824179023</v>
+        <v>-0.1134488211114733</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3050,7 +3050,7 @@
         <v>0.385985985985986</v>
       </c>
       <c r="C243">
-        <v>-0.1089313880851762</v>
+        <v>-0.1134928927677913</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3061,7 +3061,7 @@
         <v>0.3875875875875876</v>
       </c>
       <c r="C244">
-        <v>-0.1089277163530237</v>
+        <v>-0.1135349868328626</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3072,7 +3072,7 @@
         <v>0.3891891891891892</v>
       </c>
       <c r="C245">
-        <v>-0.1089220425715689</v>
+        <v>-0.1135750786568113</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3083,7 +3083,7 @@
         <v>0.3907907907907908</v>
       </c>
       <c r="C246">
-        <v>-0.1089143420909363</v>
+        <v>-0.1136131435897618</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3094,7 +3094,7 @@
         <v>0.3923923923923924</v>
       </c>
       <c r="C247">
-        <v>-0.10890459026125</v>
+        <v>-0.1136491569818383</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3105,7 +3105,7 @@
         <v>0.393993993993994</v>
       </c>
       <c r="C248">
-        <v>-0.1088927624326344</v>
+        <v>-0.1136830941831652</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3116,7 +3116,7 @@
         <v>0.3955955955955956</v>
       </c>
       <c r="C249">
-        <v>-0.1088788339552138</v>
+        <v>-0.1137149305438668</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3127,7 +3127,7 @@
         <v>0.3971971971971972</v>
       </c>
       <c r="C250">
-        <v>-0.1088627801791124</v>
+        <v>-0.1137446414140674</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3138,7 +3138,7 @@
         <v>0.3987987987987988</v>
       </c>
       <c r="C251">
-        <v>-0.1088445764544547</v>
+        <v>-0.1137722021438912</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>0.4004004004004004</v>
       </c>
       <c r="C252">
-        <v>-0.1088241981313648</v>
+        <v>-0.1137975880834626</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3160,7 +3160,7 @@
         <v>0.402002002002002</v>
       </c>
       <c r="C253">
-        <v>-0.108801620559967</v>
+        <v>-0.1138207745829058</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3171,7 +3171,7 @@
         <v>0.4036036036036036</v>
       </c>
       <c r="C254">
-        <v>-0.1087768190903858</v>
+        <v>-0.1138417369923453</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3182,7 +3182,7 @@
         <v>0.4052052052052052</v>
       </c>
       <c r="C255">
-        <v>-0.1087497690727453</v>
+        <v>-0.1138604506619051</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3193,7 +3193,7 @@
         <v>0.4068068068068068</v>
       </c>
       <c r="C256">
-        <v>-0.1087204458571699</v>
+        <v>-0.1138768909417098</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3204,7 +3204,7 @@
         <v>0.4084084084084084</v>
       </c>
       <c r="C257">
-        <v>-0.1086888247937839</v>
+        <v>-0.1138910331818834</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3215,7 +3215,7 @@
         <v>0.41001001001001</v>
       </c>
       <c r="C258">
-        <v>-0.1086548812327114</v>
+        <v>-0.1139028527325505</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3226,7 +3226,7 @@
         <v>0.4116116116116116</v>
       </c>
       <c r="C259">
-        <v>-0.108618590524077</v>
+        <v>-0.1139123249438351</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>0.4132132132132132</v>
       </c>
       <c r="C260">
-        <v>-0.1085799280180048</v>
+        <v>-0.1139194251658618</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3248,7 +3248,7 @@
         <v>0.4148148148148149</v>
       </c>
       <c r="C261">
-        <v>-0.1085388690646192</v>
+        <v>-0.1139241287487546</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>0.4164164164164164</v>
       </c>
       <c r="C262">
-        <v>-0.1084953890140444</v>
+        <v>-0.113926411042638</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3270,7 +3270,7 @@
         <v>0.418018018018018</v>
       </c>
       <c r="C263">
-        <v>-0.1084494632164048</v>
+        <v>-0.1139262473976363</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3281,7 +3281,7 @@
         <v>0.4196196196196196</v>
       </c>
       <c r="C264">
-        <v>-0.1084010670218246</v>
+        <v>-0.1139236131638737</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>0.4212212212212212</v>
       </c>
       <c r="C265">
-        <v>-0.1083501757804282</v>
+        <v>-0.1139184836914745</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>0.4228228228228229</v>
       </c>
       <c r="C266">
-        <v>-0.1082967648423398</v>
+        <v>-0.113910834330563</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3314,7 +3314,7 @@
         <v>0.4244244244244245</v>
       </c>
       <c r="C267">
-        <v>-0.1082408095576837</v>
+        <v>-0.1139006404312636</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3325,7 +3325,7 @@
         <v>0.4260260260260261</v>
       </c>
       <c r="C268">
-        <v>-0.1081822852765843</v>
+        <v>-0.1138878773437006</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3336,7 +3336,7 @@
         <v>0.4276276276276276</v>
       </c>
       <c r="C269">
-        <v>-0.1081211673491658</v>
+        <v>-0.1138725204179981</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>0.4292292292292292</v>
       </c>
       <c r="C270">
-        <v>-0.1080574311255526</v>
+        <v>-0.1138545450042805</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3358,7 +3358,7 @@
         <v>0.4308308308308308</v>
       </c>
       <c r="C271">
-        <v>-0.1079910519558689</v>
+        <v>-0.1138339264526722</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>0.4324324324324325</v>
       </c>
       <c r="C272">
-        <v>-0.107922005190239</v>
+        <v>-0.1138106401132975</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3380,7 +3380,7 @@
         <v>0.4340340340340341</v>
       </c>
       <c r="C273">
-        <v>-0.1078502661787873</v>
+        <v>-0.1137846613362805</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3391,7 +3391,7 @@
         <v>0.4356356356356357</v>
       </c>
       <c r="C274">
-        <v>-0.1077758102716379</v>
+        <v>-0.1137559654717456</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3402,7 +3402,7 @@
         <v>0.4372372372372372</v>
       </c>
       <c r="C275">
-        <v>-0.1076986128189153</v>
+        <v>-0.1137245278698172</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3413,7 +3413,7 @@
         <v>0.4388388388388388</v>
       </c>
       <c r="C276">
-        <v>-0.1076186491707437</v>
+        <v>-0.1136903238806195</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3424,7 +3424,7 @@
         <v>0.4404404404404405</v>
       </c>
       <c r="C277">
-        <v>-0.1075358946772475</v>
+        <v>-0.1136533288542768</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3435,7 +3435,7 @@
         <v>0.4420420420420421</v>
       </c>
       <c r="C278">
-        <v>-0.1074503246885508</v>
+        <v>-0.1136135181409134</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>0.4436436436436437</v>
       </c>
       <c r="C279">
-        <v>-0.1073619145547781</v>
+        <v>-0.1135708670906536</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3457,7 +3457,7 @@
         <v>0.4452452452452453</v>
       </c>
       <c r="C280">
-        <v>-0.1072706396260536</v>
+        <v>-0.1135253510536217</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>0.4468468468468469</v>
       </c>
       <c r="C281">
-        <v>-0.1071764752525016</v>
+        <v>-0.113476945379942</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3479,7 +3479,7 @@
         <v>0.4484484484484484</v>
       </c>
       <c r="C282">
-        <v>-0.1070793967842464</v>
+        <v>-0.1134256254197388</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3490,7 +3490,7 @@
         <v>0.4500500500500501</v>
       </c>
       <c r="C283">
-        <v>-0.1069793795714123</v>
+        <v>-0.1133713665231364</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3501,7 +3501,7 @@
         <v>0.4516516516516517</v>
       </c>
       <c r="C284">
-        <v>-0.1068763989641236</v>
+        <v>-0.1133141440402591</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3512,7 +3512,7 @@
         <v>0.4532532532532533</v>
       </c>
       <c r="C285">
-        <v>-0.1067704303125047</v>
+        <v>-0.1132539333212312</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3523,7 +3523,7 @@
         <v>0.4548548548548549</v>
       </c>
       <c r="C286">
-        <v>-0.1066614489666797</v>
+        <v>-0.113190709716177</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3534,7 +3534,7 @@
         <v>0.4564564564564565</v>
       </c>
       <c r="C287">
-        <v>-0.106549430276773</v>
+        <v>-0.1131244485752207</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3545,7 +3545,7 @@
         <v>0.4580580580580581</v>
       </c>
       <c r="C288">
-        <v>-0.1064343495929089</v>
+        <v>-0.1130551252484868</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3556,7 +3556,7 @@
         <v>0.4596596596596597</v>
       </c>
       <c r="C289">
-        <v>-0.1063161822652118</v>
+        <v>-0.1129827150860994</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3567,7 +3567,7 @@
         <v>0.4612612612612613</v>
       </c>
       <c r="C290">
-        <v>-0.1061949036438058</v>
+        <v>-0.112907193438183</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>0.4628628628628629</v>
       </c>
       <c r="C291">
-        <v>-0.1060704890788152</v>
+        <v>-0.1128285356548617</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3589,7 +3589,7 @@
         <v>0.4644644644644645</v>
       </c>
       <c r="C292">
-        <v>-0.1059429139203645</v>
+        <v>-0.1127467170862598</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3600,7 +3600,7 @@
         <v>0.4660660660660661</v>
       </c>
       <c r="C293">
-        <v>-0.1058121535185779</v>
+        <v>-0.1126617130825018</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3611,7 +3611,7 @@
         <v>0.4676676676676677</v>
       </c>
       <c r="C294">
-        <v>-0.1056781832235796</v>
+        <v>-0.1125734989937119</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3622,7 +3622,7 @@
         <v>0.4692692692692693</v>
       </c>
       <c r="C295">
-        <v>-0.1055409783854941</v>
+        <v>-0.1124820501700143</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3633,7 +3633,7 @@
         <v>0.4708708708708709</v>
       </c>
       <c r="C296">
-        <v>-0.1054005143544455</v>
+        <v>-0.1123873419615333</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3644,7 +3644,7 @@
         <v>0.4724724724724725</v>
       </c>
       <c r="C297">
-        <v>-0.1052567664805582</v>
+        <v>-0.1122893497183934</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3655,7 +3655,7 @@
         <v>0.4740740740740741</v>
       </c>
       <c r="C298">
-        <v>-0.1051097101139564</v>
+        <v>-0.1121880487907187</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3666,7 +3666,7 @@
         <v>0.4756756756756757</v>
       </c>
       <c r="C299">
-        <v>-0.1049593206047646</v>
+        <v>-0.1120834145286336</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3677,7 +3677,7 @@
         <v>0.4772772772772773</v>
       </c>
       <c r="C300">
-        <v>-0.1048055733031069</v>
+        <v>-0.1119754222822623</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3688,7 +3688,7 @@
         <v>0.4788788788788789</v>
       </c>
       <c r="C301">
-        <v>-0.1046484435591076</v>
+        <v>-0.1118640474017291</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3699,7 +3699,7 @@
         <v>0.4804804804804805</v>
       </c>
       <c r="C302">
-        <v>-0.1044879067228912</v>
+        <v>-0.1117492652371585</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3710,7 +3710,7 @@
         <v>0.4820820820820821</v>
       </c>
       <c r="C303">
-        <v>-0.1043239381445818</v>
+        <v>-0.1116310511386746</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3721,7 +3721,7 @@
         <v>0.4836836836836837</v>
       </c>
       <c r="C304">
-        <v>-0.1041565131743038</v>
+        <v>-0.1115093804564018</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3732,7 +3732,7 @@
         <v>0.4852852852852853</v>
       </c>
       <c r="C305">
-        <v>-0.1039856071621814</v>
+        <v>-0.1113842285404643</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3743,7 +3743,7 @@
         <v>0.4868868868868869</v>
       </c>
       <c r="C306">
-        <v>-0.103811195458339</v>
+        <v>-0.1112555707409864</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3754,7 +3754,7 @@
         <v>0.4884884884884885</v>
       </c>
       <c r="C307">
-        <v>-0.1036332534129008</v>
+        <v>-0.1111233824080926</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3765,7 +3765,7 @@
         <v>0.4900900900900901</v>
       </c>
       <c r="C308">
-        <v>-0.1034517563759912</v>
+        <v>-0.1109876388919069</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3776,7 +3776,7 @@
         <v>0.4916916916916917</v>
       </c>
       <c r="C309">
-        <v>-0.1032666796977345</v>
+        <v>-0.1108483155425538</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>0.4932932932932933</v>
       </c>
       <c r="C310">
-        <v>-0.1030779987282549</v>
+        <v>-0.1107053877101575</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3798,7 +3798,7 @@
         <v>0.4948948948948949</v>
       </c>
       <c r="C311">
-        <v>-0.1028856888176767</v>
+        <v>-0.1105588307448424</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3809,7 +3809,7 @@
         <v>0.4964964964964965</v>
       </c>
       <c r="C312">
-        <v>-0.1026897253161243</v>
+        <v>-0.1104086199967327</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3820,7 +3820,7 @@
         <v>0.4980980980980981</v>
       </c>
       <c r="C313">
-        <v>-0.1024900835737219</v>
+        <v>-0.1102547308159527</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3831,7 +3831,7 @@
         <v>0.4996996996996997</v>
       </c>
       <c r="C314">
-        <v>-0.1022867389405939</v>
+        <v>-0.1100971385526268</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3842,7 +3842,7 @@
         <v>0.5013013013013013</v>
       </c>
       <c r="C315">
-        <v>-0.1020796667668645</v>
+        <v>-0.1099358185568792</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3853,7 +3853,7 @@
         <v>0.502902902902903</v>
       </c>
       <c r="C316">
-        <v>-0.1018688424026581</v>
+        <v>-0.1097707461788342</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3864,7 +3864,7 @@
         <v>0.5045045045045046</v>
       </c>
       <c r="C317">
-        <v>-0.1016542411980988</v>
+        <v>-0.1096018967686162</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3875,7 +3875,7 @@
         <v>0.5061061061061062</v>
       </c>
       <c r="C318">
-        <v>-0.1014358385033112</v>
+        <v>-0.1094292456763493</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3886,7 +3886,7 @@
         <v>0.5077077077077077</v>
       </c>
       <c r="C319">
-        <v>-0.1012136096684193</v>
+        <v>-0.109252768252158</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>0.5093093093093093</v>
       </c>
       <c r="C320">
-        <v>-0.1009875300435476</v>
+        <v>-0.1090724398461665</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3908,7 +3908,7 @@
         <v>0.5109109109109109</v>
       </c>
       <c r="C321">
-        <v>-0.1007575749788203</v>
+        <v>-0.1088882358084992</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3919,7 +3919,7 @@
         <v>0.5125125125125125</v>
       </c>
       <c r="C322">
-        <v>-0.1005237198243617</v>
+        <v>-0.1087001314892802</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3930,7 +3930,7 @@
         <v>0.5141141141141141</v>
       </c>
       <c r="C323">
-        <v>-0.1002859399302961</v>
+        <v>-0.108508102238634</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3941,7 +3941,7 @@
         <v>0.5157157157157157</v>
       </c>
       <c r="C324">
-        <v>-0.1000442106467479</v>
+        <v>-0.1083121234066847</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3952,7 +3952,7 @@
         <v>0.5173173173173173</v>
       </c>
       <c r="C325">
-        <v>-0.09979850732384131</v>
+        <v>-0.1081121703435568</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3963,7 +3963,7 @@
         <v>0.5189189189189189</v>
       </c>
       <c r="C326">
-        <v>-0.09954880531170059</v>
+        <v>-0.1079082183993745</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3974,7 +3974,7 @@
         <v>0.5205205205205206</v>
       </c>
       <c r="C327">
-        <v>-0.09929507996045012</v>
+        <v>-0.1077002429242621</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3985,7 +3985,7 @@
         <v>0.5221221221221222</v>
       </c>
       <c r="C328">
-        <v>-0.09903730662021412</v>
+        <v>-0.1074882192683438</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3996,7 +3996,7 @@
         <v>0.5237237237237238</v>
       </c>
       <c r="C329">
-        <v>-0.09877546064111699</v>
+        <v>-0.1072721227817442</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>0.5253253253253254</v>
       </c>
       <c r="C330">
-        <v>-0.09850951737328288</v>
+        <v>-0.1070519288145872</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4018,7 +4018,7 @@
         <v>0.526926926926927</v>
       </c>
       <c r="C331">
-        <v>-0.09823945216683623</v>
+        <v>-0.1068276127169974</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4029,7 +4029,7 @@
         <v>0.5285285285285286</v>
       </c>
       <c r="C332">
-        <v>-0.09796524037190127</v>
+        <v>-0.106599149839099</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4040,7 +4040,7 @@
         <v>0.5301301301301301</v>
       </c>
       <c r="C333">
-        <v>-0.09768685733860234</v>
+        <v>-0.1063665155310162</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4051,7 +4051,7 @@
         <v>0.5317317317317317</v>
       </c>
       <c r="C334">
-        <v>-0.09740427841706367</v>
+        <v>-0.1061296851428735</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4062,7 +4062,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="C335">
-        <v>-0.09711747895740963</v>
+        <v>-0.105888634024795</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4073,7 +4073,7 @@
         <v>0.5349349349349349</v>
       </c>
       <c r="C336">
-        <v>-0.09682643430976448</v>
+        <v>-0.1056433375269052</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4084,7 +4084,7 @@
         <v>0.5365365365365365</v>
       </c>
       <c r="C337">
-        <v>-0.09653111982425248</v>
+        <v>-0.1053937709993281</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4095,7 +4095,7 @@
         <v>0.5381381381381382</v>
       </c>
       <c r="C338">
-        <v>-0.09623151085099797</v>
+        <v>-0.1051399097921883</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>0.5397397397397398</v>
       </c>
       <c r="C339">
-        <v>-0.09592758274012533</v>
+        <v>-0.10488172925561</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>0.5413413413413414</v>
       </c>
       <c r="C340">
-        <v>-0.0956193108417587</v>
+        <v>-0.1046192047397174</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4128,7 +4128,7 @@
         <v>0.542942942942943</v>
       </c>
       <c r="C341">
-        <v>-0.09530667050602243</v>
+        <v>-0.1043523115946349</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4139,7 +4139,7 @@
         <v>0.5445445445445446</v>
       </c>
       <c r="C342">
-        <v>-0.09498963708304091</v>
+        <v>-0.1040810251704868</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4150,7 +4150,7 @@
         <v>0.5461461461461462</v>
       </c>
       <c r="C343">
-        <v>-0.09466818592293837</v>
+        <v>-0.1038053208173974</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4161,7 +4161,7 @@
         <v>0.5477477477477478</v>
       </c>
       <c r="C344">
-        <v>-0.09434229237583903</v>
+        <v>-0.1035251738854909</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4172,7 +4172,7 @@
         <v>0.5493493493493494</v>
       </c>
       <c r="C345">
-        <v>-0.09401193179186731</v>
+        <v>-0.1032405597248917</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4183,7 +4183,7 @@
         <v>0.5509509509509509</v>
       </c>
       <c r="C346">
-        <v>-0.09367707952114752</v>
+        <v>-0.1029514536857241</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4194,7 +4194,7 @@
         <v>0.5525525525525525</v>
       </c>
       <c r="C347">
-        <v>-0.09333771091380386</v>
+        <v>-0.1026578311181123</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4205,7 +4205,7 @@
         <v>0.5541541541541541</v>
       </c>
       <c r="C348">
-        <v>-0.09299380131996063</v>
+        <v>-0.1023596673721806</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4216,7 +4216,7 @@
         <v>0.5557557557557558</v>
       </c>
       <c r="C349">
-        <v>-0.09264532608974223</v>
+        <v>-0.1020569377980535</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4227,7 +4227,7 @@
         <v>0.5573573573573574</v>
       </c>
       <c r="C350">
-        <v>-0.09229226057327285</v>
+        <v>-0.101749617745855</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4238,7 +4238,7 @@
         <v>0.558958958958959</v>
       </c>
       <c r="C351">
-        <v>-0.0919345801206768</v>
+        <v>-0.1014376825657097</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4249,7 +4249,7 @@
         <v>0.5605605605605606</v>
       </c>
       <c r="C352">
-        <v>-0.09157226008207844</v>
+        <v>-0.1011211076077416</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4260,7 +4260,7 @@
         <v>0.5621621621621622</v>
       </c>
       <c r="C353">
-        <v>-0.09120527580760207</v>
+        <v>-0.1007998682220753</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4271,7 +4271,7 @@
         <v>0.5637637637637638</v>
       </c>
       <c r="C354">
-        <v>-0.09083360264737192</v>
+        <v>-0.1004739397588349</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4282,7 +4282,7 @@
         <v>0.5653653653653654</v>
       </c>
       <c r="C355">
-        <v>-0.09045721595151236</v>
+        <v>-0.1001432975681447</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4293,7 +4293,7 @@
         <v>0.566966966966967</v>
       </c>
       <c r="C356">
-        <v>-0.09007609107014759</v>
+        <v>-0.09980791700012905</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4304,7 +4304,7 @@
         <v>0.5685685685685686</v>
       </c>
       <c r="C357">
-        <v>-0.08969020335340208</v>
+        <v>-0.09946777340491229</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4315,7 +4315,7 @@
         <v>0.5701701701701702</v>
       </c>
       <c r="C358">
-        <v>-0.08929952815139994</v>
+        <v>-0.09912284213261861</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4326,7 +4326,7 @@
         <v>0.5717717717717719</v>
       </c>
       <c r="C359">
-        <v>-0.08890404081426551</v>
+        <v>-0.09877309853337241</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4337,7 +4337,7 @@
         <v>0.5733733733733734</v>
       </c>
       <c r="C360">
-        <v>-0.08850371669212323</v>
+        <v>-0.09841851795729793</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>0.574974974974975</v>
       </c>
       <c r="C361">
-        <v>-0.08809853113509719</v>
+        <v>-0.09805907575451948</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4359,7 +4359,7 @@
         <v>0.5765765765765766</v>
       </c>
       <c r="C362">
-        <v>-0.08768845949331185</v>
+        <v>-0.09769474727516132</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4370,7 +4370,7 @@
         <v>0.5781781781781782</v>
       </c>
       <c r="C363">
-        <v>-0.08727347711689136</v>
+        <v>-0.09732550786934781</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4381,7 +4381,7 @@
         <v>0.5797797797797798</v>
       </c>
       <c r="C364">
-        <v>-0.08685355935596022</v>
+        <v>-0.0969513328872033</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4392,7 +4392,7 @@
         <v>0.5813813813813814</v>
       </c>
       <c r="C365">
-        <v>-0.08642868156064257</v>
+        <v>-0.09657219767885193</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4403,7 +4403,7 @@
         <v>0.582982982982983</v>
       </c>
       <c r="C366">
-        <v>-0.08599881908106269</v>
+        <v>-0.09618807759441812</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4414,7 +4414,7 @@
         <v>0.5845845845845846</v>
       </c>
       <c r="C367">
-        <v>-0.08556394726734505</v>
+        <v>-0.09579894798402611</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4425,7 +4425,7 @@
         <v>0.5861861861861862</v>
       </c>
       <c r="C368">
-        <v>-0.08512404146961373</v>
+        <v>-0.09540478419780019</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4436,7 +4436,7 @@
         <v>0.5877877877877878</v>
       </c>
       <c r="C369">
-        <v>-0.08467907703799317</v>
+        <v>-0.09500556158586468</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4447,7 +4447,7 @@
         <v>0.5893893893893895</v>
       </c>
       <c r="C370">
-        <v>-0.08422902932260765</v>
+        <v>-0.09460125549834392</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4458,7 +4458,7 @@
         <v>0.5909909909909911</v>
       </c>
       <c r="C371">
-        <v>-0.08377387367358141</v>
+        <v>-0.09419184128536218</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4469,7 +4469,7 @@
         <v>0.5925925925925927</v>
       </c>
       <c r="C372">
-        <v>-0.08331358544103878</v>
+        <v>-0.09377729429704371</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4480,7 +4480,7 @@
         <v>0.5941941941941942</v>
       </c>
       <c r="C373">
-        <v>-0.08284813997510418</v>
+        <v>-0.09335758988351291</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4491,7 +4491,7 @@
         <v>0.5957957957957958</v>
       </c>
       <c r="C374">
-        <v>-0.08237751262590168</v>
+        <v>-0.09293270339489394</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4502,7 +4502,7 @@
         <v>0.5973973973973974</v>
       </c>
       <c r="C375">
-        <v>-0.08190167874355576</v>
+        <v>-0.09250261018131123</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4513,7 +4513,7 @@
         <v>0.598998998998999</v>
       </c>
       <c r="C376">
-        <v>-0.08142061367819058</v>
+        <v>-0.09206728559288896</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4524,7 +4524,7 @@
         <v>0.6006006006006006</v>
       </c>
       <c r="C377">
-        <v>-0.08093429277993053</v>
+        <v>-0.09162670497975153</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4535,7 +4535,7 @@
         <v>0.6022022022022022</v>
       </c>
       <c r="C378">
-        <v>-0.08044269139889987</v>
+        <v>-0.09118084369202317</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4546,7 +4546,7 @@
         <v>0.6038038038038038</v>
       </c>
       <c r="C379">
-        <v>-0.07994578488522294</v>
+        <v>-0.09072967707982821</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4557,7 +4557,7 @@
         <v>0.6054054054054054</v>
       </c>
       <c r="C380">
-        <v>-0.07944354858902401</v>
+        <v>-0.09027318049329094</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4568,7 +4568,7 @@
         <v>0.607007007007007</v>
       </c>
       <c r="C381">
-        <v>-0.07893595786042738</v>
+        <v>-0.08981132928253566</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4579,7 +4579,7 @@
         <v>0.6086086086086087</v>
       </c>
       <c r="C382">
-        <v>-0.07842298804955732</v>
+        <v>-0.08934409879768671</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4590,7 +4590,7 @@
         <v>0.6102102102102103</v>
       </c>
       <c r="C383">
-        <v>-0.07790461450653818</v>
+        <v>-0.08887146438886828</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4601,7 +4601,7 @@
         <v>0.6118118118118119</v>
       </c>
       <c r="C384">
-        <v>-0.07738081258149426</v>
+        <v>-0.08839340140620482</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4612,7 +4612,7 @@
         <v>0.6134134134134135</v>
       </c>
       <c r="C385">
-        <v>-0.07685155762454983</v>
+        <v>-0.08790988519982047</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4623,7 +4623,7 @@
         <v>0.6150150150150151</v>
       </c>
       <c r="C386">
-        <v>-0.0763168249858291</v>
+        <v>-0.08742089111983957</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4634,7 +4634,7 @@
         <v>0.6166166166166166</v>
       </c>
       <c r="C387">
-        <v>-0.0757765900154566</v>
+        <v>-0.08692639451638653</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4645,7 +4645,7 @@
         <v>0.6182182182182182</v>
       </c>
       <c r="C388">
-        <v>-0.07523082806355637</v>
+        <v>-0.08642637073958551</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4656,7 +4656,7 @@
         <v>0.6198198198198198</v>
       </c>
       <c r="C389">
-        <v>-0.0746795144802528</v>
+        <v>-0.08592079513956086</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4667,7 +4667,7 @@
         <v>0.6214214214214214</v>
       </c>
       <c r="C390">
-        <v>-0.07412262461567029</v>
+        <v>-0.08540964306643686</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4678,7 +4678,7 @@
         <v>0.623023023023023</v>
       </c>
       <c r="C391">
-        <v>-0.07356013381993301</v>
+        <v>-0.08489288987033788</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4689,7 +4689,7 @@
         <v>0.6246246246246246</v>
       </c>
       <c r="C392">
-        <v>-0.07299201744316527</v>
+        <v>-0.08437051090138813</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4700,7 +4700,7 @@
         <v>0.6262262262262263</v>
       </c>
       <c r="C393">
-        <v>-0.07241825083549146</v>
+        <v>-0.08384248150971198</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4711,7 +4711,7 @@
         <v>0.6278278278278279</v>
       </c>
       <c r="C394">
-        <v>-0.07183880934703583</v>
+        <v>-0.08330877704543364</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4722,7 +4722,7 @@
         <v>0.6294294294294295</v>
       </c>
       <c r="C395">
-        <v>-0.07125366832792263</v>
+        <v>-0.08276937285867748</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4733,7 +4733,7 @@
         <v>0.6310310310310311</v>
       </c>
       <c r="C396">
-        <v>-0.07066280312827625</v>
+        <v>-0.08222424429956778</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4744,7 +4744,7 @@
         <v>0.6326326326326327</v>
       </c>
       <c r="C397">
-        <v>-0.07006618909822085</v>
+        <v>-0.08167336671822882</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4755,7 +4755,7 @@
         <v>0.6342342342342343</v>
       </c>
       <c r="C398">
-        <v>-0.06946380158788083</v>
+        <v>-0.0811167154647849</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4766,7 +4766,7 @@
         <v>0.6358358358358359</v>
       </c>
       <c r="C399">
-        <v>-0.06885561594738053</v>
+        <v>-0.08055426588936042</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4777,7 +4777,7 @@
         <v>0.6374374374374374</v>
       </c>
       <c r="C400">
-        <v>-0.06824160752684418</v>
+        <v>-0.07998599334207954</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4788,7 +4788,7 @@
         <v>0.639039039039039</v>
       </c>
       <c r="C401">
-        <v>-0.06762175167639613</v>
+        <v>-0.07941187317306665</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4799,7 +4799,7 @@
         <v>0.6406406406406406</v>
       </c>
       <c r="C402">
-        <v>-0.0669960237461605</v>
+        <v>-0.07883188073244589</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4810,7 +4810,7 @@
         <v>0.6422422422422422</v>
       </c>
       <c r="C403">
-        <v>-0.06636439908626182</v>
+        <v>-0.07824599137034173</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4821,7 +4821,7 @@
         <v>0.6438438438438439</v>
       </c>
       <c r="C404">
-        <v>-0.06572685304682421</v>
+        <v>-0.07765418043687843</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4832,7 +4832,7 @@
         <v>0.6454454454454455</v>
       </c>
       <c r="C405">
-        <v>-0.06508336097797211</v>
+        <v>-0.07705642328218022</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4843,7 +4843,7 @@
         <v>0.6470470470470471</v>
       </c>
       <c r="C406">
-        <v>-0.0644338982298298</v>
+        <v>-0.07645269525637154</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4854,7 +4854,7 @@
         <v>0.6486486486486487</v>
       </c>
       <c r="C407">
-        <v>-0.06377844015252142</v>
+        <v>-0.07584297170957645</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4865,7 +4865,7 @@
         <v>0.6502502502502503</v>
       </c>
       <c r="C408">
-        <v>-0.0631169620961714</v>
+        <v>-0.07522722799191943</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4876,7 +4876,7 @@
         <v>0.6518518518518519</v>
       </c>
       <c r="C409">
-        <v>-0.06244943941090408</v>
+        <v>-0.07460543945352485</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4887,7 +4887,7 @@
         <v>0.6534534534534535</v>
       </c>
       <c r="C410">
-        <v>-0.06177584744684367</v>
+        <v>-0.07397758144451683</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4898,7 +4898,7 @@
         <v>0.6550550550550551</v>
       </c>
       <c r="C411">
-        <v>-0.06109616155411453</v>
+        <v>-0.07334362931501973</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4909,7 +4909,7 @@
         <v>0.6566566566566567</v>
       </c>
       <c r="C412">
-        <v>-0.06041035708284083</v>
+        <v>-0.0727035584151578</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4920,7 +4920,7 @@
         <v>0.6582582582582582</v>
       </c>
       <c r="C413">
-        <v>-0.05971840938314708</v>
+        <v>-0.07205734409505547</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4931,7 +4931,7 @@
         <v>0.6598598598598598</v>
       </c>
       <c r="C414">
-        <v>-0.05902029380515737</v>
+        <v>-0.07140496170483697</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4942,7 +4942,7 @@
         <v>0.6614614614614615</v>
       </c>
       <c r="C415">
-        <v>-0.05831598569899615</v>
+        <v>-0.07074638659462655</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4953,7 +4953,7 @@
         <v>0.6630630630630631</v>
       </c>
       <c r="C416">
-        <v>-0.05760546041478759</v>
+        <v>-0.07008159411454858</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4964,7 +4964,7 @@
         <v>0.6646646646646647</v>
       </c>
       <c r="C417">
-        <v>-0.05688869330265606</v>
+        <v>-0.06941055961472725</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4975,7 +4975,7 @@
         <v>0.6662662662662663</v>
       </c>
       <c r="C418">
-        <v>-0.05616565971272587</v>
+        <v>-0.06873325844528697</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4986,7 +4986,7 @@
         <v>0.6678678678678679</v>
       </c>
       <c r="C419">
-        <v>-0.05543633499512125</v>
+        <v>-0.06804966595635198</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4997,7 +4997,7 @@
         <v>0.6694694694694695</v>
       </c>
       <c r="C420">
-        <v>-0.05470069449996663</v>
+        <v>-0.0673597574980466</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5008,7 +5008,7 @@
         <v>0.6710710710710711</v>
       </c>
       <c r="C421">
-        <v>-0.05395871357738616</v>
+        <v>-0.06666350842049512</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5019,7 +5019,7 @@
         <v>0.6726726726726727</v>
       </c>
       <c r="C422">
-        <v>-0.05321036757750422</v>
+        <v>-0.06596089407382186</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5030,7 +5030,7 @@
         <v>0.6742742742742743</v>
       </c>
       <c r="C423">
-        <v>-0.05245563185044509</v>
+        <v>-0.06525188980815105</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5041,7 +5041,7 @@
         <v>0.6758758758758759</v>
       </c>
       <c r="C424">
-        <v>-0.05169448174633311</v>
+        <v>-0.06453647097360712</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5052,7 +5052,7 @@
         <v>0.6774774774774776</v>
       </c>
       <c r="C425">
-        <v>-0.05092689261529242</v>
+        <v>-0.06381461292031421</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5063,7 +5063,7 @@
         <v>0.6790790790790792</v>
       </c>
       <c r="C426">
-        <v>-0.05015283980744756</v>
+        <v>-0.06308629099839679</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5074,7 +5074,7 @@
         <v>0.6806806806806807</v>
       </c>
       <c r="C427">
-        <v>-0.04937229867292266</v>
+        <v>-0.06235148055797898</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5085,7 +5085,7 @@
         <v>0.6822822822822823</v>
       </c>
       <c r="C428">
-        <v>-0.04858524456184202</v>
+        <v>-0.0616101569491852</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5096,7 +5096,7 @@
         <v>0.6838838838838839</v>
       </c>
       <c r="C429">
-        <v>-0.04779165282432998</v>
+        <v>-0.06086229552213965</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5107,7 +5107,7 @@
         <v>0.6854854854854855</v>
       </c>
       <c r="C430">
-        <v>-0.04699149881051087</v>
+        <v>-0.06010787162696674</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5118,7 +5118,7 @@
         <v>0.6870870870870871</v>
       </c>
       <c r="C431">
-        <v>-0.04618475787050895</v>
+        <v>-0.05934686061379071</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5129,7 +5129,7 @@
         <v>0.6886886886886887</v>
       </c>
       <c r="C432">
-        <v>-0.04537140535444849</v>
+        <v>-0.05857923783273583</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5140,7 +5140,7 @@
         <v>0.6902902902902903</v>
       </c>
       <c r="C433">
-        <v>-0.04455141661245382</v>
+        <v>-0.05780497863392639</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5151,7 +5151,7 @@
         <v>0.6918918918918919</v>
       </c>
       <c r="C434">
-        <v>-0.04372476699464928</v>
+        <v>-0.05702405836748682</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5162,7 +5162,7 @@
         <v>0.6934934934934935</v>
       </c>
       <c r="C435">
-        <v>-0.04289143185115901</v>
+        <v>-0.05623645238354123</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5173,7 +5173,7 @@
         <v>0.6950950950950952</v>
       </c>
       <c r="C436">
-        <v>-0.04205138653210751</v>
+        <v>-0.05544213603221405</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5184,7 +5184,7 @@
         <v>0.6966966966966968</v>
       </c>
       <c r="C437">
-        <v>-0.04120460638761898</v>
+        <v>-0.05464108466362959</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5195,7 +5195,7 @@
         <v>0.6982982982982984</v>
       </c>
       <c r="C438">
-        <v>-0.04035106676781776</v>
+        <v>-0.05383327362791208</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5206,7 +5206,7 @@
         <v>0.6998998998999</v>
       </c>
       <c r="C439">
-        <v>-0.03949074302282804</v>
+        <v>-0.05301867827518579</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5217,7 +5217,7 @@
         <v>0.7015015015015015</v>
       </c>
       <c r="C440">
-        <v>-0.03862361050277434</v>
+        <v>-0.05219727395557514</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5228,7 +5228,7 @@
         <v>0.7031031031031031</v>
       </c>
       <c r="C441">
-        <v>-0.03774964455778074</v>
+        <v>-0.05136903601920434</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5239,7 +5239,7 @@
         <v>0.7047047047047047</v>
       </c>
       <c r="C442">
-        <v>-0.03686882053797153</v>
+        <v>-0.05053393981619761</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5250,7 +5250,7 @@
         <v>0.7063063063063063</v>
       </c>
       <c r="C443">
-        <v>-0.03598111379347109</v>
+        <v>-0.04969196069667937</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5261,7 +5261,7 @@
         <v>0.7079079079079079</v>
       </c>
       <c r="C444">
-        <v>-0.03508649967440382</v>
+        <v>-0.04884307401077391</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>0.7095095095095095</v>
       </c>
       <c r="C445">
-        <v>-0.03418495353089381</v>
+        <v>-0.04798725510860548</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5283,7 +5283,7 @@
         <v>0.7111111111111111</v>
       </c>
       <c r="C446">
-        <v>-0.03327645071306543</v>
+        <v>-0.04712447934029838</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5294,7 +5294,7 @@
         <v>0.7127127127127127</v>
       </c>
       <c r="C447">
-        <v>-0.03236096657104306</v>
+        <v>-0.04625472205597693</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5305,7 +5305,7 @@
         <v>0.7143143143143144</v>
       </c>
       <c r="C448">
-        <v>-0.03143847645495099</v>
+        <v>-0.04537795860576548</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5316,7 +5316,7 @@
         <v>0.715915915915916</v>
       </c>
       <c r="C449">
-        <v>-0.0305089557149134</v>
+        <v>-0.04449416433978821</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5327,7 +5327,7 @@
         <v>0.7175175175175176</v>
       </c>
       <c r="C450">
-        <v>-0.02957237970105474</v>
+        <v>-0.04360331460816956</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5338,7 +5338,7 @@
         <v>0.7191191191191192</v>
       </c>
       <c r="C451">
-        <v>-0.02862872376349923</v>
+        <v>-0.04270538476103372</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5349,7 +5349,7 @@
         <v>0.7207207207207208</v>
       </c>
       <c r="C452">
-        <v>-0.02767796325237115</v>
+        <v>-0.04180035014850508</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5360,7 +5360,7 @@
         <v>0.7223223223223224</v>
       </c>
       <c r="C453">
-        <v>-0.02672007351779471</v>
+        <v>-0.04088818612070769</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5371,7 +5371,7 @@
         <v>0.7239239239239239</v>
       </c>
       <c r="C454">
-        <v>-0.02575502990989451</v>
+        <v>-0.03996886802776624</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>0.7255255255255255</v>
       </c>
       <c r="C455">
-        <v>-0.02478280777879452</v>
+        <v>-0.03904237121980474</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5393,7 +5393,7 @@
         <v>0.7271271271271271</v>
       </c>
       <c r="C456">
-        <v>-0.02380338247461915</v>
+        <v>-0.0381086710469475</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>0.7287287287287287</v>
       </c>
       <c r="C457">
-        <v>-0.02281672934749278</v>
+        <v>-0.03716774285931899</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>0.7303303303303303</v>
       </c>
       <c r="C458">
-        <v>-0.02182282374753962</v>
+        <v>-0.03621956200704336</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5426,7 +5426,7 @@
         <v>0.731931931931932</v>
       </c>
       <c r="C459">
-        <v>-0.02082164102488399</v>
+        <v>-0.03526410384024492</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>0.7335335335335336</v>
       </c>
       <c r="C460">
-        <v>-0.01981315652965021</v>
+        <v>-0.03430134370904805</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>0.7351351351351352</v>
       </c>
       <c r="C461">
-        <v>-0.01879734561196252</v>
+        <v>-0.03333125696357697</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5459,7 +5459,7 @@
         <v>0.7367367367367368</v>
       </c>
       <c r="C462">
-        <v>-0.01777418362194529</v>
+        <v>-0.03235381895395603</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5470,7 +5470,7 @@
         <v>0.7383383383383384</v>
       </c>
       <c r="C463">
-        <v>-0.01674364590972273</v>
+        <v>-0.03136900503030943</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5481,7 +5481,7 @@
         <v>0.73993993993994</v>
       </c>
       <c r="C464">
-        <v>-0.01570570782541922</v>
+        <v>-0.03037679054276163</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5492,7 +5492,7 @@
         <v>0.7415415415415416</v>
       </c>
       <c r="C465">
-        <v>-0.01466034471915909</v>
+        <v>-0.02937715084143688</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5503,7 +5503,7 @@
         <v>0.7431431431431432</v>
       </c>
       <c r="C466">
-        <v>-0.01360753194106648</v>
+        <v>-0.02837006127645933</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5514,7 +5514,7 @@
         <v>0.7447447447447447</v>
       </c>
       <c r="C467">
-        <v>-0.0125472448412659</v>
+        <v>-0.02735549719795345</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5525,7 +5525,7 @@
         <v>0.7463463463463463</v>
       </c>
       <c r="C468">
-        <v>-0.01147945876988149</v>
+        <v>-0.02633343395604348</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5536,7 +5536,7 @@
         <v>0.7479479479479479</v>
       </c>
       <c r="C469">
-        <v>-0.01040414907703753</v>
+        <v>-0.02530384690085366</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5547,7 +5547,7 @@
         <v>0.7495495495495496</v>
       </c>
       <c r="C470">
-        <v>-0.009321291112858357</v>
+        <v>-0.02426671138250835</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5558,7 +5558,7 @@
         <v>0.7511511511511512</v>
       </c>
       <c r="C471">
-        <v>-0.008230860227468467</v>
+        <v>-0.02322200275113193</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5569,7 +5569,7 @@
         <v>0.7527527527527528</v>
       </c>
       <c r="C472">
-        <v>-0.007132831770991804</v>
+        <v>-0.02216969635684851</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5580,7 +5580,7 @@
         <v>0.7543543543543544</v>
       </c>
       <c r="C473">
-        <v>-0.006027181093552908</v>
+        <v>-0.02110976754978247</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5591,7 +5591,7 @@
         <v>0.755955955955956</v>
       </c>
       <c r="C474">
-        <v>-0.004913883545275985</v>
+        <v>-0.02004219168005811</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5602,7 +5602,7 @@
         <v>0.7575575575575576</v>
       </c>
       <c r="C475">
-        <v>-0.003792914476285422</v>
+        <v>-0.01896694409779984</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5613,7 +5613,7 @@
         <v>0.7591591591591592</v>
       </c>
       <c r="C476">
-        <v>-0.002664249236705371</v>
+        <v>-0.01788400015313175</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5624,7 +5624,7 @@
         <v>0.7607607607607608</v>
       </c>
       <c r="C477">
-        <v>-0.001527863176660205</v>
+        <v>-0.01679333519617819</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5635,7 +5635,7 @@
         <v>0.7623623623623624</v>
       </c>
       <c r="C478">
-        <v>-0.0003837316462743101</v>
+        <v>-0.01569492457706363</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5646,7 +5646,7 @@
         <v>0.763963963963964</v>
       </c>
       <c r="C479">
-        <v>0.000768170004328092</v>
+        <v>-0.01458874364591227</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5657,7 +5657,7 @@
         <v>0.7655655655655657</v>
       </c>
       <c r="C480">
-        <v>0.001927866425022781</v>
+        <v>-0.01347476775284835</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5668,7 +5668,7 @@
         <v>0.7671671671671672</v>
       </c>
       <c r="C481">
-        <v>0.003095382265685245</v>
+        <v>-0.01235297224799631</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5679,7 +5679,7 @@
         <v>0.7687687687687688</v>
       </c>
       <c r="C482">
-        <v>0.004270742176191403</v>
+        <v>-0.01122333248148019</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5690,7 +5690,7 @@
         <v>0.7703703703703704</v>
       </c>
       <c r="C483">
-        <v>0.005453970806416922</v>
+        <v>-0.01008582380342449</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5701,7 +5701,7 @@
         <v>0.771971971971972</v>
       </c>
       <c r="C484">
-        <v>0.006645092806237429</v>
+        <v>-0.008940421563953457</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5712,7 +5712,7 @@
         <v>0.7735735735735736</v>
       </c>
       <c r="C485">
-        <v>0.007844132825528705</v>
+        <v>-0.007787101113191378</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5723,7 +5723,7 @@
         <v>0.7751751751751752</v>
       </c>
       <c r="C486">
-        <v>0.009051115514166375</v>
+        <v>-0.006625837801262566</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5734,7 +5734,7 @@
         <v>0.7767767767767768</v>
       </c>
       <c r="C487">
-        <v>0.01026606552202618</v>
+        <v>-0.005456606978291326</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5745,7 +5745,7 @@
         <v>0.7783783783783784</v>
       </c>
       <c r="C488">
-        <v>0.01148900749898384</v>
+        <v>-0.004279383994401961</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5756,7 +5756,7 @@
         <v>0.77997997997998</v>
       </c>
       <c r="C489">
-        <v>0.01271996609491496</v>
+        <v>-0.003094144199718776</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5767,7 +5767,7 @@
         <v>0.7815815815815816</v>
       </c>
       <c r="C490">
-        <v>0.01395896595969529</v>
+        <v>-0.001900862944366019</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5778,7 +5778,7 @@
         <v>0.7831831831831833</v>
       </c>
       <c r="C491">
-        <v>0.0152060317432007</v>
+        <v>-0.000699515578467938</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5789,7 +5789,7 @@
         <v>0.7847847847847849</v>
       </c>
       <c r="C492">
-        <v>0.01646118809530664</v>
+        <v>0.0005099225478509412</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5800,7 +5800,7 @@
         <v>0.7863863863863865</v>
       </c>
       <c r="C493">
-        <v>0.01772445966588901</v>
+        <v>0.001727476084466634</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5811,7 +5811,7 @@
         <v>0.787987987987988</v>
       </c>
       <c r="C494">
-        <v>0.01899587110482323</v>
+        <v>0.002953169681254461</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5822,7 +5822,7 @@
         <v>0.7895895895895896</v>
       </c>
       <c r="C495">
-        <v>0.02027544706198522</v>
+        <v>0.004187027988090411</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5833,7 +5833,7 @@
         <v>0.7911911911911912</v>
       </c>
       <c r="C496">
-        <v>0.02156321218725085</v>
+        <v>0.005429075654850277</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5844,7 +5844,7 @@
         <v>0.7927927927927928</v>
       </c>
       <c r="C497">
-        <v>0.02285919113049553</v>
+        <v>0.006679337331409477</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5855,7 +5855,7 @@
         <v>0.7943943943943944</v>
       </c>
       <c r="C498">
-        <v>0.02416340854159507</v>
+        <v>0.007937837667643874</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5866,7 +5866,7 @@
         <v>0.795995995995996</v>
       </c>
       <c r="C499">
-        <v>0.02547588907042522</v>
+        <v>0.009204601313429164</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5877,7 +5877,7 @@
         <v>0.7975975975975976</v>
       </c>
       <c r="C500">
-        <v>0.02679665736686157</v>
+        <v>0.01047965291864099</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5888,7 +5888,7 @@
         <v>0.7991991991991992</v>
       </c>
       <c r="C501">
-        <v>0.02812573808077981</v>
+        <v>0.01176301713315497</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5899,7 +5899,7 @@
         <v>0.8008008008008008</v>
       </c>
       <c r="C502">
-        <v>0.02946315586205578</v>
+        <v>0.01305471860684707</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5910,7 +5910,7 @@
         <v>0.8024024024024025</v>
       </c>
       <c r="C503">
-        <v>0.03080893536056506</v>
+        <v>0.01435478198959267</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5921,7 +5921,7 @@
         <v>0.8040040040040041</v>
       </c>
       <c r="C504">
-        <v>0.0321631012261836</v>
+        <v>0.01566323193126792</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5932,7 +5932,7 @@
         <v>0.8056056056056057</v>
       </c>
       <c r="C505">
-        <v>0.03352567810878662</v>
+        <v>0.01698009308174803</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5943,7 +5943,7 @@
         <v>0.8072072072072073</v>
       </c>
       <c r="C506">
-        <v>0.03489669065825027</v>
+        <v>0.01830539009090895</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5954,7 +5954,7 @@
         <v>0.8088088088088089</v>
       </c>
       <c r="C507">
-        <v>0.03627616352444998</v>
+        <v>0.01963914760862639</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5965,7 +5965,7 @@
         <v>0.8104104104104104</v>
       </c>
       <c r="C508">
-        <v>0.03766412135726169</v>
+        <v>0.02098139028477604</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5976,7 +5976,7 @@
         <v>0.812012012012012</v>
       </c>
       <c r="C509">
-        <v>0.03906058880656083</v>
+        <v>0.02233214276923338</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5987,7 +5987,7 @@
         <v>0.8136136136136136</v>
       </c>
       <c r="C510">
-        <v>0.04046559052222337</v>
+        <v>0.02369142971187442</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5998,7 +5998,7 @@
         <v>0.8152152152152152</v>
       </c>
       <c r="C511">
-        <v>0.04187915115412488</v>
+        <v>0.02505927576257481</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6009,7 +6009,7 @@
         <v>0.8168168168168168</v>
       </c>
       <c r="C512">
-        <v>0.04330129535214103</v>
+        <v>0.02643570557121015</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>0.8184184184184184</v>
       </c>
       <c r="C513">
-        <v>0.04473204776614756</v>
+        <v>0.02782074378765624</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6031,7 +6031,7 @@
         <v>0.8200200200200201</v>
       </c>
       <c r="C514">
-        <v>0.04617143304602025</v>
+        <v>0.02921441506178866</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6042,7 +6042,7 @@
         <v>0.8216216216216217</v>
       </c>
       <c r="C515">
-        <v>0.0476194758416347</v>
+        <v>0.03061674404348323</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6053,7 +6053,7 @@
         <v>0.8232232232232233</v>
       </c>
       <c r="C516">
-        <v>0.04907620080286659</v>
+        <v>0.03202775538261553</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6064,7 +6064,7 @@
         <v>0.8248248248248249</v>
       </c>
       <c r="C517">
-        <v>0.05054163257959174</v>
+        <v>0.03344747372906147</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6075,7 +6075,7 @@
         <v>0.8264264264264265</v>
       </c>
       <c r="C518">
-        <v>0.05201579582168572</v>
+        <v>0.03487592373269642</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6086,7 +6086,7 @@
         <v>0.8280280280280281</v>
       </c>
       <c r="C519">
-        <v>0.05349871517902433</v>
+        <v>0.03631313004339638</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6097,7 +6097,7 @@
         <v>0.8296296296296297</v>
       </c>
       <c r="C520">
-        <v>0.05499041530148319</v>
+        <v>0.03775911731103691</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6108,7 +6108,7 @@
         <v>0.8312312312312312</v>
       </c>
       <c r="C521">
-        <v>0.05649092083893806</v>
+        <v>0.03921391018549368</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6119,7 +6119,7 @@
         <v>0.8328328328328328</v>
       </c>
       <c r="C522">
-        <v>0.05800025644126458</v>
+        <v>0.04067753331664258</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6130,7 +6130,7 @@
         <v>0.8344344344344344</v>
       </c>
       <c r="C523">
-        <v>0.05951844675833864</v>
+        <v>0.04215001135435918</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6141,7 +6141,7 @@
         <v>0.836036036036036</v>
       </c>
       <c r="C524">
-        <v>0.06104551644003572</v>
+        <v>0.0436313689485192</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6152,7 +6152,7 @@
         <v>0.8376376376376377</v>
       </c>
       <c r="C525">
-        <v>0.06258149013623174</v>
+        <v>0.04512163074899832</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6163,7 +6163,7 @@
         <v>0.8392392392392393</v>
       </c>
       <c r="C526">
-        <v>0.06412639249680213</v>
+        <v>0.04662082140567221</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6174,7 +6174,7 @@
         <v>0.8408408408408409</v>
       </c>
       <c r="C527">
-        <v>0.06568024817162277</v>
+        <v>0.04812896556841677</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6185,7 +6185,7 @@
         <v>0.8424424424424425</v>
       </c>
       <c r="C528">
-        <v>0.06724308181056921</v>
+        <v>0.04964608788710735</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6196,7 +6196,7 @@
         <v>0.8440440440440441</v>
       </c>
       <c r="C529">
-        <v>0.06881491806351736</v>
+        <v>0.05117221301161988</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6207,7 +6207,7 @@
         <v>0.8456456456456457</v>
       </c>
       <c r="C530">
-        <v>0.07039578158034304</v>
+        <v>0.05270736559183027</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6218,7 +6218,7 @@
         <v>0.8472472472472473</v>
       </c>
       <c r="C531">
-        <v>0.07198569701092136</v>
+        <v>0.05425157027761378</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6229,7 +6229,7 @@
         <v>0.8488488488488489</v>
       </c>
       <c r="C532">
-        <v>0.07358468900512874</v>
+        <v>0.05580485171884643</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6240,7 +6240,7 @@
         <v>0.8504504504504505</v>
       </c>
       <c r="C533">
-        <v>0.07519278221284029</v>
+        <v>0.0573672345654037</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6251,7 +6251,7 @@
         <v>0.8520520520520521</v>
       </c>
       <c r="C534">
-        <v>0.07681000128393214</v>
+        <v>0.05893874346716151</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6262,7 +6262,7 @@
         <v>0.8536536536536536</v>
       </c>
       <c r="C535">
-        <v>0.07843637086827965</v>
+        <v>0.0605194030739953</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>0.8552552552552553</v>
       </c>
       <c r="C536">
-        <v>0.08007191561575888</v>
+        <v>0.06210923803578115</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6284,7 +6284,7 @@
         <v>0.8568568568568569</v>
       </c>
       <c r="C537">
-        <v>0.08171666017624507</v>
+        <v>0.0637082730023943</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6295,7 +6295,7 @@
         <v>0.8584584584584585</v>
       </c>
       <c r="C538">
-        <v>0.08337062919961458</v>
+        <v>0.065316532623711</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6306,7 +6306,7 @@
         <v>0.8600600600600601</v>
       </c>
       <c r="C539">
-        <v>0.08503384733574251</v>
+        <v>0.06693404154960648</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6317,7 +6317,7 @@
         <v>0.8616616616616617</v>
       </c>
       <c r="C540">
-        <v>0.08670633923450474</v>
+        <v>0.06856082442995658</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6328,7 +6328,7 @@
         <v>0.8632632632632633</v>
       </c>
       <c r="C541">
-        <v>0.08838812954577704</v>
+        <v>0.07019690591463697</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>0.8648648648648649</v>
       </c>
       <c r="C542">
-        <v>0.09007924291943512</v>
+        <v>0.07184231065352358</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6350,7 +6350,7 @@
         <v>0.8664664664664665</v>
       </c>
       <c r="C543">
-        <v>0.09177970400535476</v>
+        <v>0.07349706329649185</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6361,7 +6361,7 @@
         <v>0.8680680680680681</v>
       </c>
       <c r="C544">
-        <v>0.09348953745341132</v>
+        <v>0.07516118849341767</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6372,7 +6372,7 @@
         <v>0.8696696696696697</v>
       </c>
       <c r="C545">
-        <v>0.09520876791348087</v>
+        <v>0.07683471089417652</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6383,7 +6383,7 @@
         <v>0.8712712712712714</v>
       </c>
       <c r="C546">
-        <v>0.09693742003543909</v>
+        <v>0.07851765514864455</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6394,7 +6394,7 @@
         <v>0.872872872872873</v>
       </c>
       <c r="C547">
-        <v>0.09867551846916134</v>
+        <v>0.08021004590669677</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6405,7 +6405,7 @@
         <v>0.8744744744744745</v>
       </c>
       <c r="C548">
-        <v>0.1004230878645235</v>
+        <v>0.08191190781820919</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6416,7 +6416,7 @@
         <v>0.8760760760760761</v>
       </c>
       <c r="C549">
-        <v>0.1021801528714014</v>
+        <v>0.08362326553305781</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6427,7 +6427,7 @@
         <v>0.8776776776776777</v>
       </c>
       <c r="C550">
-        <v>0.1039467381396708</v>
+        <v>0.08534414370111822</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6438,7 +6438,7 @@
         <v>0.8792792792792793</v>
       </c>
       <c r="C551">
-        <v>0.1057228683192072</v>
+        <v>0.08707456697226577</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>0.8808808808808809</v>
       </c>
       <c r="C552">
-        <v>0.1075085680598864</v>
+        <v>0.08881455999637648</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>0.8824824824824825</v>
       </c>
       <c r="C553">
-        <v>0.1093038620115839</v>
+        <v>0.0905641474233259</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>0.8840840840840841</v>
       </c>
       <c r="C554">
-        <v>0.1111087748241758</v>
+        <v>0.09232335390298983</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>0.8856856856856857</v>
       </c>
       <c r="C555">
-        <v>0.1129233311475374</v>
+        <v>0.09409220408524409</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>0.8872872872872873</v>
       </c>
       <c r="C556">
-        <v>0.1147475556315446</v>
+        <v>0.09587072261996403</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6504,7 +6504,7 @@
         <v>0.888888888888889</v>
       </c>
       <c r="C557">
-        <v>0.1165814729260733</v>
+        <v>0.0976589341570258</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>0.8904904904904906</v>
       </c>
       <c r="C558">
-        <v>0.1184251076809986</v>
+        <v>0.09945686334630453</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6526,7 +6526,7 @@
         <v>0.8920920920920922</v>
       </c>
       <c r="C559">
-        <v>0.1202784845461969</v>
+        <v>0.1012645348376765</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6537,7 +6537,7 @@
         <v>0.8936936936936938</v>
       </c>
       <c r="C560">
-        <v>0.1221416281715435</v>
+        <v>0.1030819732810171</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6548,7 +6548,7 @@
         <v>0.8952952952952954</v>
       </c>
       <c r="C561">
-        <v>0.124014563206914</v>
+        <v>0.104909203326202</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>0.8968968968968969</v>
       </c>
       <c r="C562">
-        <v>0.1258973143021843</v>
+        <v>0.106746249623107</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6570,7 +6570,7 @@
         <v>0.8984984984984985</v>
       </c>
       <c r="C563">
-        <v>0.1277899061072302</v>
+        <v>0.1085931368216078</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6581,7 +6581,7 @@
         <v>0.9001001001001001</v>
       </c>
       <c r="C564">
-        <v>0.1296923632719273</v>
+        <v>0.1104498895715802</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6592,7 +6592,7 @@
         <v>0.9017017017017017</v>
       </c>
       <c r="C565">
-        <v>0.1316047104461513</v>
+        <v>0.1123165325228997</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6603,7 +6603,7 @@
         <v>0.9033033033033033</v>
       </c>
       <c r="C566">
-        <v>0.133526972279778</v>
+        <v>0.1141930903254424</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6614,7 +6614,7 @@
         <v>0.9049049049049049</v>
       </c>
       <c r="C567">
-        <v>0.1354591734226827</v>
+        <v>0.1160795876290834</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6625,7 +6625,7 @@
         <v>0.9065065065065065</v>
       </c>
       <c r="C568">
-        <v>0.1374013385247417</v>
+        <v>0.1179760490836989</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6636,7 +6636,7 @@
         <v>0.9081081081081082</v>
       </c>
       <c r="C569">
-        <v>0.1393534922358303</v>
+        <v>0.1198824993391643</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6647,7 +6647,7 @@
         <v>0.9097097097097098</v>
       </c>
       <c r="C570">
-        <v>0.1413156592058244</v>
+        <v>0.1217989630453554</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6658,7 +6658,7 @@
         <v>0.9113113113113114</v>
       </c>
       <c r="C571">
-        <v>0.1432878640845994</v>
+        <v>0.1237254648521479</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6669,7 +6669,7 @@
         <v>0.912912912912913</v>
       </c>
       <c r="C572">
-        <v>0.1452701315220314</v>
+        <v>0.1256620294094176</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6680,7 +6680,7 @@
         <v>0.9145145145145146</v>
       </c>
       <c r="C573">
-        <v>0.1472624861679957</v>
+        <v>0.12760868136704</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6691,7 +6691,7 @@
         <v>0.9161161161161162</v>
       </c>
       <c r="C574">
-        <v>0.1492649526723684</v>
+        <v>0.1295654453748911</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6702,7 +6702,7 @@
         <v>0.9177177177177177</v>
       </c>
       <c r="C575">
-        <v>0.1512775556850248</v>
+        <v>0.1315323460828462</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6713,7 +6713,7 @@
         <v>0.9193193193193193</v>
       </c>
       <c r="C576">
-        <v>0.1533003198558409</v>
+        <v>0.1335094081407813</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6724,7 +6724,7 @@
         <v>0.9209209209209209</v>
       </c>
       <c r="C577">
-        <v>0.1553332698346925</v>
+        <v>0.135496656198572</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6735,7 +6735,7 @@
         <v>0.9225225225225225</v>
       </c>
       <c r="C578">
-        <v>0.1573764302714549</v>
+        <v>0.1374941149060941</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6746,7 +6746,7 @@
         <v>0.9241241241241241</v>
       </c>
       <c r="C579">
-        <v>0.1594298258160041</v>
+        <v>0.1395018089132233</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6757,7 +6757,7 @@
         <v>0.9257257257257258</v>
       </c>
       <c r="C580">
-        <v>0.1614934811182158</v>
+        <v>0.1415197628698351</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6768,7 +6768,7 @@
         <v>0.9273273273273274</v>
       </c>
       <c r="C581">
-        <v>0.1635674208279657</v>
+        <v>0.1435480014258055</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6779,7 +6779,7 @@
         <v>0.928928928928929</v>
       </c>
       <c r="C582">
-        <v>0.1656516695951293</v>
+        <v>0.1455865492310101</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6790,7 +6790,7 @@
         <v>0.9305305305305306</v>
       </c>
       <c r="C583">
-        <v>0.1677462520695824</v>
+        <v>0.1476354309353243</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6801,7 +6801,7 @@
         <v>0.9321321321321322</v>
       </c>
       <c r="C584">
-        <v>0.1698511929012008</v>
+        <v>0.1496946711886242</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6812,7 +6812,7 @@
         <v>0.9337337337337338</v>
       </c>
       <c r="C585">
-        <v>0.1719665167398602</v>
+        <v>0.1517642946407853</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6823,7 +6823,7 @@
         <v>0.9353353353353354</v>
       </c>
       <c r="C586">
-        <v>0.174092248235436</v>
+        <v>0.1538443259416832</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6834,7 +6834,7 @@
         <v>0.936936936936937</v>
       </c>
       <c r="C587">
-        <v>0.1762284120378043</v>
+        <v>0.1559347897411939</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6845,7 +6845,7 @@
         <v>0.9385385385385386</v>
       </c>
       <c r="C588">
-        <v>0.1783750327968407</v>
+        <v>0.158035710689193</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6856,7 +6856,7 @@
         <v>0.9401401401401401</v>
       </c>
       <c r="C589">
-        <v>0.1805321351624206</v>
+        <v>0.1601471134355559</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6867,7 +6867,7 @@
         <v>0.9417417417417417</v>
       </c>
       <c r="C590">
-        <v>0.1826997437844201</v>
+        <v>0.1622690226301587</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6878,7 +6878,7 @@
         <v>0.9433433433433434</v>
       </c>
       <c r="C591">
-        <v>0.1848778833127148</v>
+        <v>0.1644014629228771</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6889,7 +6889,7 @@
         <v>0.944944944944945</v>
       </c>
       <c r="C592">
-        <v>0.1870665783971804</v>
+        <v>0.1665444589635866</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6900,7 +6900,7 @@
         <v>0.9465465465465466</v>
       </c>
       <c r="C593">
-        <v>0.1892658536876924</v>
+        <v>0.1686980354021628</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6911,7 +6911,7 @@
         <v>0.9481481481481482</v>
       </c>
       <c r="C594">
-        <v>0.1914757338341267</v>
+        <v>0.1708622168884817</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6922,7 +6922,7 @@
         <v>0.9497497497497498</v>
       </c>
       <c r="C595">
-        <v>0.1936962434863591</v>
+        <v>0.1730370280724189</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6933,7 +6933,7 @@
         <v>0.9513513513513514</v>
       </c>
       <c r="C596">
-        <v>0.195927407294265</v>
+        <v>0.1752224936038499</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6944,7 +6944,7 @@
         <v>0.952952952952953</v>
       </c>
       <c r="C597">
-        <v>0.1981692499077204</v>
+        <v>0.1774186381326509</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6955,7 +6955,7 @@
         <v>0.9545545545545546</v>
       </c>
       <c r="C598">
-        <v>0.2004217959766007</v>
+        <v>0.179625486308697</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6966,7 +6966,7 @@
         <v>0.9561561561561562</v>
       </c>
       <c r="C599">
-        <v>0.2026850701507819</v>
+        <v>0.1818430627818642</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6977,7 +6977,7 @@
         <v>0.9577577577577578</v>
       </c>
       <c r="C600">
-        <v>0.2049590970801395</v>
+        <v>0.1840713922020283</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6988,7 +6988,7 @@
         <v>0.9593593593593595</v>
       </c>
       <c r="C601">
-        <v>0.2072439014145492</v>
+        <v>0.1863104992190648</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6999,7 +6999,7 @@
         <v>0.960960960960961</v>
       </c>
       <c r="C602">
-        <v>0.2095395078038868</v>
+        <v>0.1885604084828494</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7010,7 +7010,7 @@
         <v>0.9625625625625626</v>
       </c>
       <c r="C603">
-        <v>0.211845940898028</v>
+        <v>0.1908211446432579</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7021,7 +7021,7 @@
         <v>0.9641641641641642</v>
       </c>
       <c r="C604">
-        <v>0.2141632253468484</v>
+        <v>0.1930927323501661</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7032,7 +7032,7 @@
         <v>0.9657657657657658</v>
       </c>
       <c r="C605">
-        <v>0.2164913858002239</v>
+        <v>0.1953751962534495</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7043,7 +7043,7 @@
         <v>0.9673673673673674</v>
       </c>
       <c r="C606">
-        <v>0.2188304469080301</v>
+        <v>0.197668561002984</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7054,7 +7054,7 @@
         <v>0.968968968968969</v>
       </c>
       <c r="C607">
-        <v>0.2211804333201426</v>
+        <v>0.199972851248645</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7065,7 +7065,7 @@
         <v>0.9705705705705706</v>
       </c>
       <c r="C608">
-        <v>0.2235413696864372</v>
+        <v>0.2022880916403085</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7076,7 +7076,7 @@
         <v>0.9721721721721722</v>
       </c>
       <c r="C609">
-        <v>0.2259132806567898</v>
+        <v>0.2046143068278502</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7087,7 +7087,7 @@
         <v>0.9737737737737738</v>
       </c>
       <c r="C610">
-        <v>0.2282961908810756</v>
+        <v>0.2069515214611456</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7098,7 +7098,7 @@
         <v>0.9753753753753754</v>
       </c>
       <c r="C611">
-        <v>0.2306901250091707</v>
+        <v>0.2092997601900705</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7109,7 +7109,7 @@
         <v>0.9769769769769771</v>
       </c>
       <c r="C612">
-        <v>0.2330951076909507</v>
+        <v>0.2116590476645007</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7120,7 +7120,7 @@
         <v>0.9785785785785787</v>
       </c>
       <c r="C613">
-        <v>0.2355111635762913</v>
+        <v>0.2140294085343117</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7131,7 +7131,7 @@
         <v>0.9801801801801803</v>
       </c>
       <c r="C614">
-        <v>0.2379383173150681</v>
+        <v>0.2164108674493793</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7142,7 +7142,7 @@
         <v>0.9817817817817819</v>
       </c>
       <c r="C615">
-        <v>0.2403765935571572</v>
+        <v>0.2188034490595792</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7153,7 +7153,7 @@
         <v>0.9833833833833834</v>
       </c>
       <c r="C616">
-        <v>0.2428260169524335</v>
+        <v>0.2212071780147871</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7164,7 +7164,7 @@
         <v>0.984984984984985</v>
       </c>
       <c r="C617">
-        <v>0.2452866121507736</v>
+        <v>0.2236220789648788</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7175,7 +7175,7 @@
         <v>0.9865865865865866</v>
       </c>
       <c r="C618">
-        <v>0.2477584038020526</v>
+        <v>0.2260481765597298</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7186,7 +7186,7 @@
         <v>0.9881881881881882</v>
       </c>
       <c r="C619">
-        <v>0.2502414165561466</v>
+        <v>0.2284854954492161</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7197,7 +7197,7 @@
         <v>0.9897897897897898</v>
       </c>
       <c r="C620">
-        <v>0.252735675062931</v>
+        <v>0.2309340602832131</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7208,7 +7208,7 @@
         <v>0.9913913913913914</v>
       </c>
       <c r="C621">
-        <v>0.2552412039722816</v>
+        <v>0.2333938957115966</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7219,7 +7219,7 @@
         <v>0.992992992992993</v>
       </c>
       <c r="C622">
-        <v>0.2577580279340741</v>
+        <v>0.2358650263842424</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7230,7 +7230,7 @@
         <v>0.9945945945945946</v>
       </c>
       <c r="C623">
-        <v>0.2602861715981843</v>
+        <v>0.2383474769510261</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7241,7 +7241,7 @@
         <v>0.9961961961961963</v>
       </c>
       <c r="C624">
-        <v>0.2628256596144878</v>
+        <v>0.2408412720618234</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7252,7 +7252,7 @@
         <v>0.9977977977977979</v>
       </c>
       <c r="C625">
-        <v>0.2653765166328603</v>
+        <v>0.24334643636651</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7263,7 +7263,7 @@
         <v>0.9993993993993995</v>
       </c>
       <c r="C626">
-        <v>0.2679387673031776</v>
+        <v>0.2458629945149617</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7274,7 +7274,7 @@
         <v>1.001001001001001</v>
       </c>
       <c r="C627">
-        <v>0.2705124362753153</v>
+        <v>0.2483909711570542</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7285,7 +7285,7 @@
         <v>1.002602602602603</v>
       </c>
       <c r="C628">
-        <v>0.273097548199149</v>
+        <v>0.250930390942663</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7296,7 +7296,7 @@
         <v>1.004204204204204</v>
       </c>
       <c r="C629">
-        <v>0.2756941277245547</v>
+        <v>0.2534812785216642</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7307,7 +7307,7 @@
         <v>1.005805805805806</v>
       </c>
       <c r="C630">
-        <v>0.2783021995014078</v>
+        <v>0.2560436585439329</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7318,7 +7318,7 @@
         <v>1.007407407407408</v>
       </c>
       <c r="C631">
-        <v>0.2809217881795842</v>
+        <v>0.2586175556593453</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7329,7 +7329,7 @@
         <v>1.009009009009009</v>
       </c>
       <c r="C632">
-        <v>0.2835529184089594</v>
+        <v>0.2612029945177768</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7340,7 +7340,7 @@
         <v>1.010610610610611</v>
       </c>
       <c r="C633">
-        <v>0.2861956148394094</v>
+        <v>0.2637999997691033</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7351,7 +7351,7 @@
         <v>1.012212212212212</v>
       </c>
       <c r="C634">
-        <v>0.2888499021208096</v>
+        <v>0.2664085960632007</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7362,7 +7362,7 @@
         <v>1.013813813813814</v>
       </c>
       <c r="C635">
-        <v>0.291515804903036</v>
+        <v>0.2690288080499442</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7373,7 +7373,7 @@
         <v>1.015415415415415</v>
       </c>
       <c r="C636">
-        <v>0.2941933478359637</v>
+        <v>0.2716606603792096</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7384,7 +7384,7 @@
         <v>1.017017017017017</v>
       </c>
       <c r="C637">
-        <v>0.2968825555694694</v>
+        <v>0.2743041777008731</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7395,7 +7395,7 @@
         <v>1.018618618618619</v>
       </c>
       <c r="C638">
-        <v>0.299583452753428</v>
+        <v>0.2769593846648098</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7406,7 +7406,7 @@
         <v>1.02022022022022</v>
       </c>
       <c r="C639">
-        <v>0.3022960640377155</v>
+        <v>0.2796263059208958</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7417,7 +7417,7 @@
         <v>1.021821821821822</v>
       </c>
       <c r="C640">
-        <v>0.3050204140722077</v>
+        <v>0.2823049661190067</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7428,7 +7428,7 @@
         <v>1.023423423423423</v>
       </c>
       <c r="C641">
-        <v>0.30775652750678</v>
+        <v>0.2849953899090182</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7439,7 +7439,7 @@
         <v>1.025025025025025</v>
       </c>
       <c r="C642">
-        <v>0.3105044289913083</v>
+        <v>0.2876976019408058</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7450,7 +7450,7 @@
         <v>1.026626626626627</v>
       </c>
       <c r="C643">
-        <v>0.3132641431756681</v>
+        <v>0.2904116268642454</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7461,7 +7461,7 @@
         <v>1.028228228228228</v>
       </c>
       <c r="C644">
-        <v>0.3160356947097356</v>
+        <v>0.293137489329213</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7472,7 +7472,7 @@
         <v>1.02982982982983</v>
       </c>
       <c r="C645">
-        <v>0.3188191082433857</v>
+        <v>0.2958752139855834</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7483,7 +7483,7 @@
         <v>1.031431431431431</v>
       </c>
       <c r="C646">
-        <v>0.3216144084264949</v>
+        <v>0.2986248254832333</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7494,7 +7494,7 @@
         <v>1.033033033033033</v>
       </c>
       <c r="C647">
-        <v>0.3244216199089387</v>
+        <v>0.301386348472038</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7505,7 +7505,7 @@
         <v>1.034634634634635</v>
       </c>
       <c r="C648">
-        <v>0.3272407673405923</v>
+        <v>0.3041598076018729</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7516,7 +7516,7 @@
         <v>1.036236236236236</v>
       </c>
       <c r="C649">
-        <v>0.3300718753713321</v>
+        <v>0.3069452275226142</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7527,7 +7527,7 @@
         <v>1.037837837837838</v>
       </c>
       <c r="C650">
-        <v>0.3329149686510332</v>
+        <v>0.3097426328841372</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7538,7 +7538,7 @@
         <v>1.03943943943944</v>
       </c>
       <c r="C651">
-        <v>0.3357700718295717</v>
+        <v>0.3125520483363179</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7549,7 +7549,7 @@
         <v>1.041041041041041</v>
       </c>
       <c r="C652">
-        <v>0.3386372095568232</v>
+        <v>0.315373498529032</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7560,7 +7560,7 @@
         <v>1.042642642642643</v>
       </c>
       <c r="C653">
-        <v>0.3415164064826635</v>
+        <v>0.318207008112155</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7571,7 +7571,7 @@
         <v>1.044244244244244</v>
       </c>
       <c r="C654">
-        <v>0.344407687256968</v>
+        <v>0.3210526017355628</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7582,7 +7582,7 @@
         <v>1.045845845845846</v>
       </c>
       <c r="C655">
-        <v>0.3473110765296127</v>
+        <v>0.3239103040491308</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7593,7 +7593,7 @@
         <v>1.047447447447448</v>
       </c>
       <c r="C656">
-        <v>0.3502265989504729</v>
+        <v>0.3267801397027348</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7604,7 +7604,7 @@
         <v>1.049049049049049</v>
       </c>
       <c r="C657">
-        <v>0.353154279169425</v>
+        <v>0.3296621333462509</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7615,7 +7615,7 @@
         <v>1.050650650650651</v>
       </c>
       <c r="C658">
-        <v>0.3560941418363441</v>
+        <v>0.3325563096295545</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7626,7 +7626,7 @@
         <v>1.052252252252252</v>
       </c>
       <c r="C659">
-        <v>0.3590462116011061</v>
+        <v>0.335462693202521</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7637,7 +7637,7 @@
         <v>1.053853853853854</v>
       </c>
       <c r="C660">
-        <v>0.3620105131135867</v>
+        <v>0.3383813087150266</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7648,7 +7648,7 @@
         <v>1.055455455455456</v>
       </c>
       <c r="C661">
-        <v>0.3649870710236615</v>
+        <v>0.3413121808169468</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7659,7 +7659,7 @@
         <v>1.057057057057057</v>
       </c>
       <c r="C662">
-        <v>0.3679759099812066</v>
+        <v>0.3442553341581573</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7670,7 +7670,7 @@
         <v>1.058658658658659</v>
       </c>
       <c r="C663">
-        <v>0.3709770546360966</v>
+        <v>0.3472107933885334</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7681,7 +7681,7 @@
         <v>1.06026026026026</v>
       </c>
       <c r="C664">
-        <v>0.3739905296382086</v>
+        <v>0.3501785831579516</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7692,7 +7692,7 @@
         <v>1.061861861861862</v>
       </c>
       <c r="C665">
-        <v>0.3770163596374178</v>
+        <v>0.3531587281162872</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7703,7 +7703,7 @@
         <v>1.063463463463463</v>
       </c>
       <c r="C666">
-        <v>0.3800545692835997</v>
+        <v>0.356151252913416</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7714,7 +7714,7 @@
         <v>1.065065065065065</v>
       </c>
       <c r="C667">
-        <v>0.38310518322663</v>
+        <v>0.3591561821992134</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7725,7 +7725,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="C668">
-        <v>0.3861682261163847</v>
+        <v>0.3621735406235556</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7736,7 +7736,7 @@
         <v>1.068268268268268</v>
       </c>
       <c r="C669">
-        <v>0.3892437226027392</v>
+        <v>0.3652033528363178</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7747,7 +7747,7 @@
         <v>1.06986986986987</v>
       </c>
       <c r="C670">
-        <v>0.3923316973355693</v>
+        <v>0.368245643487376</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7758,7 +7758,7 @@
         <v>1.071471471471471</v>
       </c>
       <c r="C671">
-        <v>0.3954321749647508</v>
+        <v>0.371300437226606</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7769,7 +7769,7 @@
         <v>1.073073073073073</v>
       </c>
       <c r="C672">
-        <v>0.3985451801401595</v>
+        <v>0.3743677587038833</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7780,7 +7780,7 @@
         <v>1.074674674674675</v>
       </c>
       <c r="C673">
-        <v>0.4016707375116707</v>
+        <v>0.3774476325690836</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7791,7 +7791,7 @@
         <v>1.076276276276276</v>
       </c>
       <c r="C674">
-        <v>0.4048088717291605</v>
+        <v>0.3805400834720826</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7802,7 +7802,7 @@
         <v>1.077877877877878</v>
       </c>
       <c r="C675">
-        <v>0.4079596074425041</v>
+        <v>0.383645136062756</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7813,7 +7813,7 @@
         <v>1.07947947947948</v>
       </c>
       <c r="C676">
-        <v>0.4111229693015775</v>
+        <v>0.3867628149909794</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7824,7 +7824,7 @@
         <v>1.081081081081081</v>
       </c>
       <c r="C677">
-        <v>0.4142989819562568</v>
+        <v>0.3898931449066288</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7835,7 +7835,7 @@
         <v>1.082682682682683</v>
       </c>
       <c r="C678">
-        <v>0.4174876700564173</v>
+        <v>0.3930361504595798</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7846,7 +7846,7 @@
         <v>1.084284284284284</v>
       </c>
       <c r="C679">
-        <v>0.4206890582519346</v>
+        <v>0.396191856299708</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7857,7 +7857,7 @@
         <v>1.085885885885886</v>
       </c>
       <c r="C680">
-        <v>0.4239031711926847</v>
+        <v>0.3993602870768891</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7868,7 +7868,7 @@
         <v>1.087487487487488</v>
       </c>
       <c r="C681">
-        <v>0.4271300335285428</v>
+        <v>0.4025414674409989</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7879,7 +7879,7 @@
         <v>1.089089089089089</v>
       </c>
       <c r="C682">
-        <v>0.4303696699093852</v>
+        <v>0.405735422041913</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7890,7 +7890,7 @@
         <v>1.090690690690691</v>
       </c>
       <c r="C683">
-        <v>0.4336221049850874</v>
+        <v>0.4089421755295072</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7901,7 +7901,7 @@
         <v>1.092292292292292</v>
       </c>
       <c r="C684">
-        <v>0.4368873634055247</v>
+        <v>0.4121617525536571</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7912,7 +7912,7 @@
         <v>1.093893893893894</v>
       </c>
       <c r="C685">
-        <v>0.4401654698205736</v>
+        <v>0.4153941777642385</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7923,7 +7923,7 @@
         <v>1.095495495495496</v>
       </c>
       <c r="C686">
-        <v>0.443456448880109</v>
+        <v>0.418639475811127</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7934,7 +7934,7 @@
         <v>1.097097097097097</v>
       </c>
       <c r="C687">
-        <v>0.4467603252340072</v>
+        <v>0.4218976713441986</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -7945,7 +7945,7 @@
         <v>1.098698698698699</v>
       </c>
       <c r="C688">
-        <v>0.4500771235321436</v>
+        <v>0.4251687890133286</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -7956,7 +7956,7 @@
         <v>1.1003003003003</v>
       </c>
       <c r="C689">
-        <v>0.4534068684243938</v>
+        <v>0.4284528534683928</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -7967,7 +7967,7 @@
         <v>1.101901901901902</v>
       </c>
       <c r="C690">
-        <v>0.4567495845606332</v>
+        <v>0.4317498893592664</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -7978,7 +7978,7 @@
         <v>1.103503503503503</v>
       </c>
       <c r="C691">
-        <v>0.4601052965907386</v>
+        <v>0.4350599213358265</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -7989,7 +7989,7 @@
         <v>1.105105105105105</v>
       </c>
       <c r="C692">
-        <v>0.4634740291645848</v>
+        <v>0.4383829740479476</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8000,7 +8000,7 @@
         <v>1.106706706706707</v>
       </c>
       <c r="C693">
-        <v>0.4668558069320481</v>
+        <v>0.441719072145506</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8011,7 +8011,7 @@
         <v>1.108308308308308</v>
       </c>
       <c r="C694">
-        <v>0.4702506545430037</v>
+        <v>0.4450682402783772</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8022,7 +8022,7 @@
         <v>1.10990990990991</v>
       </c>
       <c r="C695">
-        <v>0.4736585966473275</v>
+        <v>0.4484305030964367</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8033,7 +8033,7 @@
         <v>1.111511511511512</v>
       </c>
       <c r="C696">
-        <v>0.477079657894895</v>
+        <v>0.4518058852495605</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8044,7 +8044,7 @@
         <v>1.113113113113113</v>
       </c>
       <c r="C697">
-        <v>0.4805138629355825</v>
+        <v>0.4551944113876243</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8055,7 +8055,7 @@
         <v>1.114714714714715</v>
       </c>
       <c r="C698">
-        <v>0.4839612364192648</v>
+        <v>0.4585961061605034</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8066,7 +8066,7 @@
         <v>1.116316316316316</v>
       </c>
       <c r="C699">
-        <v>0.4874218029958183</v>
+        <v>0.462010994218074</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8077,7 +8077,7 @@
         <v>1.117917917917918</v>
       </c>
       <c r="C700">
-        <v>0.4908955873151186</v>
+        <v>0.4654391002102117</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8088,7 +8088,7 @@
         <v>1.11951951951952</v>
       </c>
       <c r="C701">
-        <v>0.494382614027041</v>
+        <v>0.4688804487867916</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8099,7 +8099,7 @@
         <v>1.121121121121121</v>
       </c>
       <c r="C702">
-        <v>0.4978829077814619</v>
+        <v>0.4723350645976905</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8110,7 +8110,7 @@
         <v>1.122722722722723</v>
       </c>
       <c r="C703">
-        <v>0.5013964932282563</v>
+        <v>0.4758029722927832</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8121,7 +8121,7 @@
         <v>1.124324324324324</v>
       </c>
       <c r="C704">
-        <v>0.5049233950173001</v>
+        <v>0.4792841965219455</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8132,7 +8132,7 @@
         <v>1.125925925925926</v>
       </c>
       <c r="C705">
-        <v>0.5084636377984691</v>
+        <v>0.4827787619350536</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8143,7 +8143,7 @@
         <v>1.127527527527528</v>
       </c>
       <c r="C706">
-        <v>0.5120172462216394</v>
+        <v>0.486286693181983</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8154,7 +8154,7 @@
         <v>1.129129129129129</v>
       </c>
       <c r="C707">
-        <v>0.5155842449366858</v>
+        <v>0.4898080149126089</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8165,7 +8165,7 @@
         <v>1.130730730730731</v>
       </c>
       <c r="C708">
-        <v>0.5191646585934847</v>
+        <v>0.4933427517768077</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8176,7 +8176,7 @@
         <v>1.132332332332332</v>
       </c>
       <c r="C709">
-        <v>0.5227585118419117</v>
+        <v>0.4968909284244549</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8187,7 +8187,7 @@
         <v>1.133933933933934</v>
       </c>
       <c r="C710">
-        <v>0.5263658293318424</v>
+        <v>0.5004525695054258</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8198,7 +8198,7 @@
         <v>1.135535535535536</v>
       </c>
       <c r="C711">
-        <v>0.5299866357131521</v>
+        <v>0.5040276996695965</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8209,7 +8209,7 @@
         <v>1.137137137137137</v>
       </c>
       <c r="C712">
-        <v>0.5336209556357171</v>
+        <v>0.5076163435668426</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8220,7 +8220,7 @@
         <v>1.138738738738739</v>
       </c>
       <c r="C713">
-        <v>0.5372688137494133</v>
+        <v>0.51121852584704</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8231,7 +8231,7 @@
         <v>1.14034034034034</v>
       </c>
       <c r="C714">
-        <v>0.5409302347041155</v>
+        <v>0.5148342711600641</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8242,7 +8242,7 @@
         <v>1.141941941941942</v>
       </c>
       <c r="C715">
-        <v>0.5446052431497005</v>
+        <v>0.5184636041557908</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8253,7 +8253,7 @@
         <v>1.143543543543544</v>
       </c>
       <c r="C716">
-        <v>0.5482938637360429</v>
+        <v>0.5221065494840955</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8264,7 +8264,7 @@
         <v>1.145145145145145</v>
       </c>
       <c r="C717">
-        <v>0.5519961211130183</v>
+        <v>0.5257631317948539</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8275,7 +8275,7 @@
         <v>1.146746746746747</v>
       </c>
       <c r="C718">
-        <v>0.5557120399305039</v>
+        <v>0.5294333757379424</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8286,7 +8286,7 @@
         <v>1.148348348348348</v>
       </c>
       <c r="C719">
-        <v>0.5594416448383744</v>
+        <v>0.5331173059632358</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8297,7 +8297,7 @@
         <v>1.14994994994995</v>
       </c>
       <c r="C720">
-        <v>0.5631849604865058</v>
+        <v>0.5368149471206108</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8308,7 +8308,7 @@
         <v>1.151551551551552</v>
       </c>
       <c r="C721">
-        <v>0.5669420115247735</v>
+        <v>0.5405263238599426</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8319,7 +8319,7 @@
         <v>1.153153153153153</v>
       </c>
       <c r="C722">
-        <v>0.5707128226030532</v>
+        <v>0.5442514608311064</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8330,7 +8330,7 @@
         <v>1.154754754754755</v>
       </c>
       <c r="C723">
-        <v>0.5744974183712208</v>
+        <v>0.5479903826839783</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8341,7 +8341,7 @@
         <v>1.156356356356356</v>
       </c>
       <c r="C724">
-        <v>0.5782958234791522</v>
+        <v>0.5517431140684346</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8352,7 +8352,7 @@
         <v>1.157957957957958</v>
       </c>
       <c r="C725">
-        <v>0.5821080625767224</v>
+        <v>0.5555096796343499</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8363,7 +8363,7 @@
         <v>1.15955955955956</v>
       </c>
       <c r="C726">
-        <v>0.5859341603138076</v>
+        <v>0.5592901040316005</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8374,7 +8374,7 @@
         <v>1.161161161161161</v>
       </c>
       <c r="C727">
-        <v>0.5897741413402837</v>
+        <v>0.5630844119100623</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8385,7 +8385,7 @@
         <v>1.162762762762763</v>
       </c>
       <c r="C728">
-        <v>0.5936280303060258</v>
+        <v>0.5668926279196106</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8396,7 +8396,7 @@
         <v>1.164364364364364</v>
       </c>
       <c r="C729">
-        <v>0.5974958518609105</v>
+        <v>0.5707147767101214</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8407,7 +8407,7 @@
         <v>1.165965965965966</v>
       </c>
       <c r="C730">
-        <v>0.6013776306548125</v>
+        <v>0.5745508829314698</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8418,7 +8418,7 @@
         <v>1.167567567567568</v>
       </c>
       <c r="C731">
-        <v>0.605273391337608</v>
+        <v>0.5784009712335325</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8429,7 +8429,7 @@
         <v>1.169169169169169</v>
       </c>
       <c r="C732">
-        <v>0.6091831585591724</v>
+        <v>0.5822650662661844</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8440,7 +8440,7 @@
         <v>1.170770770770771</v>
       </c>
       <c r="C733">
-        <v>0.6131069569693822</v>
+        <v>0.5861431926793017</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8451,7 +8451,7 @@
         <v>1.172372372372372</v>
       </c>
       <c r="C734">
-        <v>0.6170448112181122</v>
+        <v>0.5900353751227595</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8462,7 +8462,7 @@
         <v>1.173973973973974</v>
       </c>
       <c r="C735">
-        <v>0.6209967459552388</v>
+        <v>0.5939416382464343</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8473,7 +8473,7 @@
         <v>1.175575575575576</v>
       </c>
       <c r="C736">
-        <v>0.6249627858306369</v>
+        <v>0.5978620067002011</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8484,7 +8484,7 @@
         <v>1.177177177177177</v>
       </c>
       <c r="C737">
-        <v>0.6289429554941829</v>
+        <v>0.6017965051339356</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8495,7 +8495,7 @@
         <v>1.178778778778779</v>
       </c>
       <c r="C738">
-        <v>0.6329372795957522</v>
+        <v>0.6057451581975142</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8506,7 +8506,7 @@
         <v>1.180380380380381</v>
       </c>
       <c r="C739">
-        <v>0.6369457827852206</v>
+        <v>0.609707990540812</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8517,7 +8517,7 @@
         <v>1.181981981981982</v>
       </c>
       <c r="C740">
-        <v>0.6409684897124638</v>
+        <v>0.6136850268137048</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8528,7 +8528,7 @@
         <v>1.183583583583584</v>
       </c>
       <c r="C741">
-        <v>0.6450054250273575</v>
+        <v>0.6176762916660687</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8539,7 +8539,7 @@
         <v>1.185185185185185</v>
       </c>
       <c r="C742">
-        <v>0.6490566133797773</v>
+        <v>0.6216818097477786</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8550,7 +8550,7 @@
         <v>1.186786786786787</v>
       </c>
       <c r="C743">
-        <v>0.653122079419599</v>
+        <v>0.6257016057087111</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8561,7 +8561,7 @@
         <v>1.188388388388388</v>
       </c>
       <c r="C744">
-        <v>0.6572018477966975</v>
+        <v>0.6297357041987406</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8572,7 +8572,7 @@
         <v>1.18998998998999</v>
       </c>
       <c r="C745">
-        <v>0.6612959431609502</v>
+        <v>0.6337841298677445</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8583,7 +8583,7 @@
         <v>1.191591591591592</v>
       </c>
       <c r="C746">
-        <v>0.6654043901622316</v>
+        <v>0.6378469073655977</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8594,7 +8594,7 @@
         <v>1.193193193193193</v>
       </c>
       <c r="C747">
-        <v>0.6695272134504179</v>
+        <v>0.6419240613421757</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8605,7 +8605,7 @@
         <v>1.194794794794795</v>
       </c>
       <c r="C748">
-        <v>0.6736644376753842</v>
+        <v>0.6460156164473544</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8616,7 +8616,7 @@
         <v>1.196396396396396</v>
       </c>
       <c r="C749">
-        <v>0.6778160874870069</v>
+        <v>0.6501215973310096</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8627,7 +8627,7 @@
         <v>1.197997997997998</v>
       </c>
       <c r="C750">
-        <v>0.6819821875351614</v>
+        <v>0.6542420286430169</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8638,7 +8638,7 @@
         <v>1.1995995995996</v>
       </c>
       <c r="C751">
-        <v>0.6861627624697234</v>
+        <v>0.658376935033252</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8649,7 +8649,7 @@
         <v>1.201201201201201</v>
       </c>
       <c r="C752">
-        <v>0.6903578369405685</v>
+        <v>0.6625263411515905</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8660,7 +8660,7 @@
         <v>1.202802802802803</v>
       </c>
       <c r="C753">
-        <v>0.6945674355975725</v>
+        <v>0.6666902716479084</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8671,7 +8671,7 @@
         <v>1.204404404404404</v>
       </c>
       <c r="C754">
-        <v>0.6987915830906112</v>
+        <v>0.670868751172081</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8682,7 +8682,7 @@
         <v>1.206006006006006</v>
       </c>
       <c r="C755">
-        <v>0.7030303040695599</v>
+        <v>0.6750618043739842</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8693,7 +8693,7 @@
         <v>1.207607607607608</v>
       </c>
       <c r="C756">
-        <v>0.7072836231842949</v>
+        <v>0.6792694559034939</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8704,7 +8704,7 @@
         <v>1.209209209209209</v>
       </c>
       <c r="C757">
-        <v>0.7115515650846914</v>
+        <v>0.6834917304104854</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8715,7 +8715,7 @@
         <v>1.210810810810811</v>
       </c>
       <c r="C758">
-        <v>0.7158341544206256</v>
+        <v>0.6877286525448348</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8726,7 +8726,7 @@
         <v>1.212412412412412</v>
       </c>
       <c r="C759">
-        <v>0.7201314158419727</v>
+        <v>0.6919802469564176</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8737,7 +8737,7 @@
         <v>1.214014014014014</v>
       </c>
       <c r="C760">
-        <v>0.7244433739986087</v>
+        <v>0.6962465382951095</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8748,7 +8748,7 @@
         <v>1.215615615615616</v>
       </c>
       <c r="C761">
-        <v>0.728770053540409</v>
+        <v>0.700527551210786</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8759,7 +8759,7 @@
         <v>1.217217217217217</v>
       </c>
       <c r="C762">
-        <v>0.7331114791172498</v>
+        <v>0.7048233103533232</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8770,7 +8770,7 @@
         <v>1.218818818818819</v>
       </c>
       <c r="C763">
-        <v>0.7374676753790061</v>
+        <v>0.7091338403725966</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8781,7 +8781,7 @@
         <v>1.220420420420421</v>
       </c>
       <c r="C764">
-        <v>0.7418386669755545</v>
+        <v>0.713459165918482</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -8792,7 +8792,7 @@
         <v>1.222022022022022</v>
       </c>
       <c r="C765">
-        <v>0.7462244785567699</v>
+        <v>0.7177993116408549</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -8803,7 +8803,7 @@
         <v>1.223623623623624</v>
       </c>
       <c r="C766">
-        <v>0.7506251347725285</v>
+        <v>0.7221543021895911</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -8814,7 +8814,7 @@
         <v>1.225225225225225</v>
       </c>
       <c r="C767">
-        <v>0.7550406602727056</v>
+        <v>0.7265241622145666</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -8825,7 +8825,7 @@
         <v>1.226826826826827</v>
       </c>
       <c r="C768">
-        <v>0.7594710797071772</v>
+        <v>0.7309089163656566</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -8836,7 +8836,7 @@
         <v>1.228428428428429</v>
       </c>
       <c r="C769">
-        <v>0.7639164177258192</v>
+        <v>0.7353085892927373</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -8847,7 +8847,7 @@
         <v>1.23003003003003</v>
       </c>
       <c r="C770">
-        <v>0.7683766989785068</v>
+        <v>0.7397232056456839</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -8858,7 +8858,7 @@
         <v>1.231631631631632</v>
       </c>
       <c r="C771">
-        <v>0.7728519481151154</v>
+        <v>0.7441527900743717</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -8869,7 +8869,7 @@
         <v>1.233233233233233</v>
       </c>
       <c r="C772">
-        <v>0.7773421897855216</v>
+        <v>0.7485973672286778</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -8880,7 +8880,7 @@
         <v>1.234834834834835</v>
       </c>
       <c r="C773">
-        <v>0.7818474486396012</v>
+        <v>0.7530569617584773</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -8891,7 +8891,7 @@
         <v>1.236436436436436</v>
       </c>
       <c r="C774">
-        <v>0.786367749327229</v>
+        <v>0.7575315983136452</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -8902,7 +8902,7 @@
         <v>1.238038038038038</v>
       </c>
       <c r="C775">
-        <v>0.7909031164982815</v>
+        <v>0.7620213015440582</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -8913,7 +8913,7 @@
         <v>1.23963963963964</v>
       </c>
       <c r="C776">
-        <v>0.7954535748026338</v>
+        <v>0.7665260960995914</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -8924,7 +8924,7 @@
         <v>1.241241241241241</v>
       </c>
       <c r="C777">
-        <v>0.8000191488901618</v>
+        <v>0.7710460066301208</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -8935,7 +8935,7 @@
         <v>1.242842842842843</v>
       </c>
       <c r="C778">
-        <v>0.8045998634107413</v>
+        <v>0.7755810577855219</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -8946,7 +8946,7 @@
         <v>1.244444444444444</v>
       </c>
       <c r="C779">
-        <v>0.8091957430142481</v>
+        <v>0.7801312742156704</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -8957,7 +8957,7 @@
         <v>1.246046046046046</v>
       </c>
       <c r="C780">
-        <v>0.8138068123505576</v>
+        <v>0.784696680570442</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -8968,7 +8968,7 @@
         <v>1.247647647647648</v>
       </c>
       <c r="C781">
-        <v>0.8184330960695456</v>
+        <v>0.7892773014997125</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -8979,7 +8979,7 @@
         <v>1.249249249249249</v>
       </c>
       <c r="C782">
-        <v>0.8230746188210881</v>
+        <v>0.7938731616533576</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -8990,7 +8990,7 @@
         <v>1.250850850850851</v>
       </c>
       <c r="C783">
-        <v>0.8277314052550603</v>
+        <v>0.7984842856812528</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9001,7 +9001,7 @@
         <v>1.252452452452453</v>
       </c>
       <c r="C784">
-        <v>0.8324034800213385</v>
+        <v>0.8031106982332743</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9012,7 +9012,7 @@
         <v>1.254054054054054</v>
       </c>
       <c r="C785">
-        <v>0.8370908677697979</v>
+        <v>0.8077524239592974</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9023,7 +9023,7 @@
         <v>1.255655655655656</v>
       </c>
       <c r="C786">
-        <v>0.8417935931503141</v>
+        <v>0.8124094875091977</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9034,7 +9034,7 @@
         <v>1.257257257257257</v>
       </c>
       <c r="C787">
-        <v>0.8465116808127634</v>
+        <v>0.8170819135328512</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9045,7 +9045,7 @@
         <v>1.258858858858859</v>
       </c>
       <c r="C788">
-        <v>0.8512451554070211</v>
+        <v>0.8217697266801334</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9056,7 +9056,7 @@
         <v>1.260460460460461</v>
       </c>
       <c r="C789">
-        <v>0.8559940415829629</v>
+        <v>0.8264729516009202</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9067,7 +9067,7 @@
         <v>1.262062062062062</v>
       </c>
       <c r="C790">
-        <v>0.8607583639904642</v>
+        <v>0.8311916129450869</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9078,7 +9078,7 @@
         <v>1.263663663663664</v>
       </c>
       <c r="C791">
-        <v>0.865538147279402</v>
+        <v>0.83592573536251</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9089,7 +9089,7 @@
         <v>1.265265265265265</v>
       </c>
       <c r="C792">
-        <v>0.8703334160996503</v>
+        <v>0.8406753435030643</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9100,7 +9100,7 @@
         <v>1.266866866866867</v>
       </c>
       <c r="C793">
-        <v>0.875144195101086</v>
+        <v>0.8454404620166259</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9111,7 +9111,7 @@
         <v>1.268468468468469</v>
       </c>
       <c r="C794">
-        <v>0.8799705089335842</v>
+        <v>0.8502211155530707</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9122,7 +9122,7 @@
         <v>1.27007007007007</v>
       </c>
       <c r="C795">
-        <v>0.8848123822470204</v>
+        <v>0.8550173287622737</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9133,7 +9133,7 @@
         <v>1.271671671671672</v>
       </c>
       <c r="C796">
-        <v>0.8896698396912712</v>
+        <v>0.8598291262941113</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9144,7 +9144,7 @@
         <v>1.273273273273273</v>
       </c>
       <c r="C797">
-        <v>0.894542905916211</v>
+        <v>0.8646565327984588</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9155,7 +9155,7 @@
         <v>1.274874874874875</v>
       </c>
       <c r="C798">
-        <v>0.8994316055717172</v>
+        <v>0.8694995729251924</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9166,7 +9166,7 @@
         <v>1.276476476476476</v>
       </c>
       <c r="C799">
-        <v>0.9043359633076641</v>
+        <v>0.8743582713241874</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9177,7 +9177,7 @@
         <v>1.278078078078078</v>
       </c>
       <c r="C800">
-        <v>0.9092560037739278</v>
+        <v>0.8792326526453195</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9188,7 +9188,7 @@
         <v>1.27967967967968</v>
       </c>
       <c r="C801">
-        <v>0.9141917516203845</v>
+        <v>0.8841227415384648</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9199,7 +9199,7 @@
         <v>1.281281281281281</v>
       </c>
       <c r="C802">
-        <v>0.9191432314969098</v>
+        <v>0.8890285626534988</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9210,7 +9210,7 @@
         <v>1.282882882882883</v>
       </c>
       <c r="C803">
-        <v>0.9241104680533784</v>
+        <v>0.8939501406402968</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9221,7 +9221,7 @@
         <v>1.284484484484484</v>
       </c>
       <c r="C804">
-        <v>0.929093485939667</v>
+        <v>0.8988875001487351</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9232,7 +9232,7 @@
         <v>1.286086086086086</v>
       </c>
       <c r="C805">
-        <v>0.9340923098056509</v>
+        <v>0.9038406658286888</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9243,7 +9243,7 @@
         <v>1.287687687687688</v>
       </c>
       <c r="C806">
-        <v>0.9391069643012065</v>
+        <v>0.9088096623300344</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9254,7 +9254,7 @@
         <v>1.289289289289289</v>
       </c>
       <c r="C807">
-        <v>0.9441374740762082</v>
+        <v>0.9137945143026469</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9265,7 +9265,7 @@
         <v>1.290890890890891</v>
       </c>
       <c r="C808">
-        <v>0.9491838637805329</v>
+        <v>0.9187952463964022</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9276,7 +9276,7 @@
         <v>1.292492492492493</v>
       </c>
       <c r="C809">
-        <v>0.9542461580640554</v>
+        <v>0.9238118832611757</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9287,7 +9287,7 @@
         <v>1.294094094094094</v>
       </c>
       <c r="C810">
-        <v>0.9593243815766516</v>
+        <v>0.9288444495468433</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9298,7 +9298,7 @@
         <v>1.295695695695696</v>
       </c>
       <c r="C811">
-        <v>0.9644185589681981</v>
+        <v>0.9338929699032816</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9309,7 +9309,7 @@
         <v>1.297297297297297</v>
       </c>
       <c r="C812">
-        <v>0.9695287148885697</v>
+        <v>0.9389574689803653</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -9320,7 +9320,7 @@
         <v>1.298898898898899</v>
       </c>
       <c r="C813">
-        <v>0.9746548739876423</v>
+        <v>0.9440379714279703</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -9331,7 +9331,7 @@
         <v>1.300500500500501</v>
       </c>
       <c r="C814">
-        <v>0.9797970609152916</v>
+        <v>0.9491345018959723</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -9342,7 +9342,7 @@
         <v>1.302102102102102</v>
       </c>
       <c r="C815">
-        <v>0.9849553003213932</v>
+        <v>0.9542470850342468</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9353,7 +9353,7 @@
         <v>1.303703703703704</v>
       </c>
       <c r="C816">
-        <v>0.990129616855823</v>
+        <v>0.9593757454926695</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -9364,7 +9364,7 @@
         <v>1.305305305305305</v>
       </c>
       <c r="C817">
-        <v>0.9953200351684565</v>
+        <v>0.9645205079211165</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -9375,7 +9375,7 @@
         <v>1.306906906906907</v>
       </c>
       <c r="C818">
-        <v>1.00052657990917</v>
+        <v>0.9696813969694638</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -9386,7 +9386,7 @@
         <v>1.308508508508509</v>
       </c>
       <c r="C819">
-        <v>1.005749275727838</v>
+        <v>0.9748584372875866</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -9397,7 +9397,7 @@
         <v>1.31011011011011</v>
       </c>
       <c r="C820">
-        <v>1.010988147274338</v>
+        <v>0.9800516535253603</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -9408,7 +9408,7 @@
         <v>1.311711711711712</v>
       </c>
       <c r="C821">
-        <v>1.016243219198544</v>
+        <v>0.9852610703326612</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -9419,7 +9419,7 @@
         <v>1.313313313313313</v>
       </c>
       <c r="C822">
-        <v>1.021514516150332</v>
+        <v>0.9904867123593648</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -9430,7 +9430,7 @@
         <v>1.314914914914915</v>
       </c>
       <c r="C823">
-        <v>1.026802062779578</v>
+        <v>0.9957286042553464</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -9441,7 +9441,7 @@
         <v>1.316516516516516</v>
       </c>
       <c r="C824">
-        <v>1.032105883736158</v>
+        <v>1.000986770670482</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -9452,7 +9452,7 @@
         <v>1.318118118118118</v>
       </c>
       <c r="C825">
-        <v>1.037426003669947</v>
+        <v>1.006261236254647</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -9463,7 +9463,7 @@
         <v>1.31971971971972</v>
       </c>
       <c r="C826">
-        <v>1.042762447230822</v>
+        <v>1.011552025657718</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9474,7 +9474,7 @@
         <v>1.321321321321321</v>
       </c>
       <c r="C827">
-        <v>1.048115239068658</v>
+        <v>1.016859163529571</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9485,7 +9485,7 @@
         <v>1.322922922922923</v>
       </c>
       <c r="C828">
-        <v>1.05348440383333</v>
+        <v>1.022182674520079</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -9496,7 +9496,7 @@
         <v>1.324524524524525</v>
       </c>
       <c r="C829">
-        <v>1.058869966174714</v>
+        <v>1.027522583279121</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -9507,7 +9507,7 @@
         <v>1.326126126126126</v>
       </c>
       <c r="C830">
-        <v>1.064271950742686</v>
+        <v>1.032878914456571</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -9518,7 +9518,7 @@
         <v>1.327727727727728</v>
       </c>
       <c r="C831">
-        <v>1.069690382187123</v>
+        <v>1.038251692702305</v>
       </c>
     </row>
     <row r="832" spans="1:3">
@@ -9529,7 +9529,7 @@
         <v>1.329329329329329</v>
       </c>
       <c r="C832">
-        <v>1.075125285157898</v>
+        <v>1.043640942666198</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -9540,7 +9540,7 @@
         <v>1.330930930930931</v>
       </c>
       <c r="C833">
-        <v>1.080576684304888</v>
+        <v>1.049046688998127</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -9551,7 +9551,7 @@
         <v>1.332532532532533</v>
       </c>
       <c r="C834">
-        <v>1.086044604277969</v>
+        <v>1.054468956347967</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -9562,7 +9562,7 @@
         <v>1.334134134134134</v>
       </c>
       <c r="C835">
-        <v>1.091529069727017</v>
+        <v>1.059907769365594</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -9573,7 +9573,7 @@
         <v>1.335735735735736</v>
       </c>
       <c r="C836">
-        <v>1.097030105301907</v>
+        <v>1.065363152700884</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -9584,7 +9584,7 @@
         <v>1.337337337337337</v>
       </c>
       <c r="C837">
-        <v>1.102547735652515</v>
+        <v>1.070835131003711</v>
       </c>
     </row>
     <row r="838" spans="1:3">
@@ -9595,7 +9595,7 @@
         <v>1.338938938938939</v>
       </c>
       <c r="C838">
-        <v>1.108081985428716</v>
+        <v>1.076323728923952</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -9606,7 +9606,7 @@
         <v>1.340540540540541</v>
       </c>
       <c r="C839">
-        <v>1.113632879280386</v>
+        <v>1.081828971111483</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9617,7 +9617,7 @@
         <v>1.342142142142142</v>
       </c>
       <c r="C840">
-        <v>1.119200441857402</v>
+        <v>1.087350882216179</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9628,7 +9628,7 @@
         <v>1.343743743743744</v>
       </c>
       <c r="C841">
-        <v>1.124784697809638</v>
+        <v>1.092889486887917</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9639,7 +9639,7 @@
         <v>1.345345345345345</v>
       </c>
       <c r="C842">
-        <v>1.13038567178697</v>
+        <v>1.09844480977657</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9650,7 +9650,7 @@
         <v>1.346946946946947</v>
       </c>
       <c r="C843">
-        <v>1.136003388439275</v>
+        <v>1.104016875532017</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9661,7 +9661,7 @@
         <v>1.348548548548549</v>
       </c>
       <c r="C844">
-        <v>1.141637872416428</v>
+        <v>1.109605708804131</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9672,7 +9672,7 @@
         <v>1.35015015015015</v>
       </c>
       <c r="C845">
-        <v>1.147289148368304</v>
+        <v>1.115211334242789</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9683,7 +9683,7 @@
         <v>1.351751751751752</v>
       </c>
       <c r="C846">
-        <v>1.152957240944779</v>
+        <v>1.120833776497867</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9694,7 +9694,7 @@
         <v>1.353353353353353</v>
       </c>
       <c r="C847">
-        <v>1.158642174795729</v>
+        <v>1.12647306021924</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -9705,7 +9705,7 @@
         <v>1.354954954954955</v>
       </c>
       <c r="C848">
-        <v>1.16434397457103</v>
+        <v>1.132129210056784</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9716,7 +9716,7 @@
         <v>1.356556556556557</v>
       </c>
       <c r="C849">
-        <v>1.170062664920557</v>
+        <v>1.137802250660374</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -9727,7 +9727,7 @@
         <v>1.358158158158158</v>
       </c>
       <c r="C850">
-        <v>1.175798270494185</v>
+        <v>1.143492206679887</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -9738,7 +9738,7 @@
         <v>1.35975975975976</v>
       </c>
       <c r="C851">
-        <v>1.181550815941791</v>
+        <v>1.149199102765197</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -9749,7 +9749,7 @@
         <v>1.361361361361361</v>
       </c>
       <c r="C852">
-        <v>1.187320325913251</v>
+        <v>1.154922963566181</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -9760,7 +9760,7 @@
         <v>1.362962962962963</v>
       </c>
       <c r="C853">
-        <v>1.19310682505844</v>
+        <v>1.160663813732715</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -9771,7 +9771,7 @@
         <v>1.364564564564565</v>
       </c>
       <c r="C854">
-        <v>1.198910338027235</v>
+        <v>1.166421677914674</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -9782,7 +9782,7 @@
         <v>1.366166166166166</v>
       </c>
       <c r="C855">
-        <v>1.204730889469509</v>
+        <v>1.172196580761934</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -9793,7 +9793,7 @@
         <v>1.367767767767768</v>
       </c>
       <c r="C856">
-        <v>1.21056850403514</v>
+        <v>1.17798854692437</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -9804,7 +9804,7 @@
         <v>1.369369369369369</v>
       </c>
       <c r="C857">
-        <v>1.216423206374002</v>
+        <v>1.183797601051859</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -9815,7 +9815,7 @@
         <v>1.370970970970971</v>
       </c>
       <c r="C858">
-        <v>1.222295021135972</v>
+        <v>1.189623767794275</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9826,7 +9826,7 @@
         <v>1.372572572572573</v>
       </c>
       <c r="C859">
-        <v>1.228183972970926</v>
+        <v>1.195467071801495</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -9837,7 +9837,7 @@
         <v>1.374174174174174</v>
       </c>
       <c r="C860">
-        <v>1.234090086528738</v>
+        <v>1.201327537723395</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -9848,7 +9848,7 @@
         <v>1.375775775775776</v>
       </c>
       <c r="C861">
-        <v>1.240013386459286</v>
+        <v>1.207205190209849</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -9859,7 +9859,7 @@
         <v>1.377377377377377</v>
       </c>
       <c r="C862">
-        <v>1.245953897412444</v>
+        <v>1.213100053910734</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -9870,7 +9870,7 @@
         <v>1.378978978978979</v>
       </c>
       <c r="C863">
-        <v>1.251911644038088</v>
+        <v>1.219012153475926</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -9881,7 +9881,7 @@
         <v>1.380580580580581</v>
       </c>
       <c r="C864">
-        <v>1.257886650986093</v>
+        <v>1.2249415135553</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -9892,7 +9892,7 @@
         <v>1.382182182182182</v>
       </c>
       <c r="C865">
-        <v>1.263878942906336</v>
+        <v>1.230888158798731</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -9903,7 +9903,7 @@
         <v>1.383783783783784</v>
       </c>
       <c r="C866">
-        <v>1.269888544448692</v>
+        <v>1.236852113856096</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -9914,7 +9914,7 @@
         <v>1.385385385385385</v>
       </c>
       <c r="C867">
-        <v>1.275915480263038</v>
+        <v>1.242833403377271</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -9925,7 +9925,7 @@
         <v>1.386986986986987</v>
       </c>
       <c r="C868">
-        <v>1.281959774999248</v>
+        <v>1.248832052012131</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -9936,7 +9936,7 @@
         <v>1.388588588588589</v>
       </c>
       <c r="C869">
-        <v>1.288021453307199</v>
+        <v>1.254848084410551</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -9947,7 +9947,7 @@
         <v>1.39019019019019</v>
       </c>
       <c r="C870">
-        <v>1.294100539836765</v>
+        <v>1.260881525222407</v>
       </c>
     </row>
     <row r="871" spans="1:3">
@@ -9958,7 +9958,7 @@
         <v>1.391791791791792</v>
       </c>
       <c r="C871">
-        <v>1.300197059237823</v>
+        <v>1.266932399097575</v>
       </c>
     </row>
     <row r="872" spans="1:3">
@@ -9969,7 +9969,7 @@
         <v>1.393393393393394</v>
       </c>
       <c r="C872">
-        <v>1.306311036160249</v>
+        <v>1.273000730685931</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -9980,7 +9980,7 @@
         <v>1.394994994994995</v>
       </c>
       <c r="C873">
-        <v>1.312442495253917</v>
+        <v>1.279086544637351</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -9991,7 +9991,7 @@
         <v>1.396596596596597</v>
       </c>
       <c r="C874">
-        <v>1.318591461168705</v>
+        <v>1.28518986560171</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -10002,7 +10002,7 @@
         <v>1.398198198198198</v>
       </c>
       <c r="C875">
-        <v>1.324757958554487</v>
+        <v>1.291310718228883</v>
       </c>
     </row>
     <row r="876" spans="1:3">
@@ -10013,7 +10013,7 @@
         <v>1.3997997997998</v>
       </c>
       <c r="C876">
-        <v>1.330942012061139</v>
+        <v>1.297449127168748</v>
       </c>
     </row>
     <row r="877" spans="1:3">
@@ -10024,7 +10024,7 @@
         <v>1.401401401401402</v>
       </c>
       <c r="C877">
-        <v>1.337143646338538</v>
+        <v>1.303605117071178</v>
       </c>
     </row>
     <row r="878" spans="1:3">
@@ -10035,7 +10035,7 @@
         <v>1.403003003003003</v>
       </c>
       <c r="C878">
-        <v>1.343362886036557</v>
+        <v>1.30977871258605</v>
       </c>
     </row>
     <row r="879" spans="1:3">
@@ -10046,7 +10046,7 @@
         <v>1.404604604604605</v>
       </c>
       <c r="C879">
-        <v>1.349599755805074</v>
+        <v>1.31596993836324</v>
       </c>
     </row>
     <row r="880" spans="1:3">
@@ -10057,7 +10057,7 @@
         <v>1.406206206206206</v>
       </c>
       <c r="C880">
-        <v>1.355854280293964</v>
+        <v>1.322178819052623</v>
       </c>
     </row>
     <row r="881" spans="1:3">
@@ -10068,7 +10068,7 @@
         <v>1.407807807807808</v>
       </c>
       <c r="C881">
-        <v>1.362126484153104</v>
+        <v>1.328405379304076</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -10079,7 +10079,7 @@
         <v>1.409409409409409</v>
       </c>
       <c r="C882">
-        <v>1.368416392032367</v>
+        <v>1.334649643767473</v>
       </c>
     </row>
     <row r="883" spans="1:3">
@@ -10090,7 +10090,7 @@
         <v>1.411011011011011</v>
       </c>
       <c r="C883">
-        <v>1.374724028581632</v>
+        <v>1.340911637092691</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -10101,7 +10101,7 @@
         <v>1.412612612612613</v>
       </c>
       <c r="C884">
-        <v>1.381049418450771</v>
+        <v>1.347191383929605</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -10112,7 +10112,7 @@
         <v>1.414214214214214</v>
       </c>
       <c r="C885">
-        <v>1.387392586289662</v>
+        <v>1.353488908928091</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -10123,7 +10123,7 @@
         <v>1.415815815815816</v>
       </c>
       <c r="C886">
-        <v>1.393753556748181</v>
+        <v>1.359804236738025</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10134,7 +10134,7 @@
         <v>1.417417417417417</v>
       </c>
       <c r="C887">
-        <v>1.400132354476203</v>
+        <v>1.366137392009282</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -10145,7 +10145,7 @@
         <v>1.419019019019019</v>
       </c>
       <c r="C888">
-        <v>1.406529004123603</v>
+        <v>1.372488399391737</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -10156,7 +10156,7 @@
         <v>1.420620620620621</v>
       </c>
       <c r="C889">
-        <v>1.412943530340257</v>
+        <v>1.378857283535267</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -10167,7 +10167,7 @@
         <v>1.422222222222222</v>
       </c>
       <c r="C890">
-        <v>1.419375957776042</v>
+        <v>1.385244069089749</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10178,7 +10178,7 @@
         <v>1.423823823823824</v>
       </c>
       <c r="C891">
-        <v>1.425826311080832</v>
+        <v>1.391648780705055</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10189,7 +10189,7 @@
         <v>1.425425425425425</v>
       </c>
       <c r="C892">
-        <v>1.432294614904505</v>
+        <v>1.398071443031064</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -10200,7 +10200,7 @@
         <v>1.427027027027027</v>
       </c>
       <c r="C893">
-        <v>1.438780893896934</v>
+        <v>1.404512080717651</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10211,7 +10211,7 @@
         <v>1.428628628628629</v>
       </c>
       <c r="C894">
-        <v>1.445285172707996</v>
+        <v>1.41097071841469</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -10222,7 +10222,7 @@
         <v>1.43023023023023</v>
       </c>
       <c r="C895">
-        <v>1.451807475987566</v>
+        <v>1.417447380772058</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10233,7 +10233,7 @@
         <v>1.431831831831832</v>
       </c>
       <c r="C896">
-        <v>1.458347828385522</v>
+        <v>1.423942092439631</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -10244,7 +10244,7 @@
         <v>1.433433433433434</v>
       </c>
       <c r="C897">
-        <v>1.464906254551736</v>
+        <v>1.430454878067284</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -10255,7 +10255,7 @@
         <v>1.435035035035035</v>
       </c>
       <c r="C898">
-        <v>1.471482779136087</v>
+        <v>1.436985762304894</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10266,7 +10266,7 @@
         <v>1.436636636636637</v>
       </c>
       <c r="C899">
-        <v>1.478077426788449</v>
+        <v>1.443534769802335</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10277,7 +10277,7 @@
         <v>1.438238238238238</v>
       </c>
       <c r="C900">
-        <v>1.484690222158698</v>
+        <v>1.450101925209483</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -10288,7 +10288,7 @@
         <v>1.43983983983984</v>
       </c>
       <c r="C901">
-        <v>1.49132118989671</v>
+        <v>1.456687253176215</v>
       </c>
     </row>
     <row r="902" spans="1:3">
@@ -10299,7 +10299,7 @@
         <v>1.441441441441442</v>
       </c>
       <c r="C902">
-        <v>1.49797035465236</v>
+        <v>1.463290778352405</v>
       </c>
     </row>
     <row r="903" spans="1:3">
@@ -10310,7 +10310,7 @@
         <v>1.443043043043043</v>
       </c>
       <c r="C903">
-        <v>1.504637741075525</v>
+        <v>1.46991252538793</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -10321,7 +10321,7 @@
         <v>1.444644644644645</v>
       </c>
       <c r="C904">
-        <v>1.51132337381608</v>
+        <v>1.476552518932665</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -10332,7 +10332,7 @@
         <v>1.446246246246246</v>
       </c>
       <c r="C905">
-        <v>1.518027277523899</v>
+        <v>1.483210783636485</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -10343,7 +10343,7 @@
         <v>1.447847847847848</v>
       </c>
       <c r="C906">
-        <v>1.524749476848861</v>
+        <v>1.489887344149268</v>
       </c>
     </row>
     <row r="907" spans="1:3">
@@ -10354,7 +10354,7 @@
         <v>1.449449449449449</v>
       </c>
       <c r="C907">
-        <v>1.531489996440839</v>
+        <v>1.496582225120888</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -10365,7 +10365,7 @@
         <v>1.451051051051051</v>
       </c>
       <c r="C908">
-        <v>1.538248860949711</v>
+        <v>1.503295451201221</v>
       </c>
     </row>
     <row r="909" spans="1:3">
@@ -10376,7 +10376,7 @@
         <v>1.452652652652653</v>
       </c>
       <c r="C909">
-        <v>1.545026095025351</v>
+        <v>1.510027047040143</v>
       </c>
     </row>
     <row r="910" spans="1:3">
@@ -10387,7 +10387,7 @@
         <v>1.454254254254254</v>
       </c>
       <c r="C910">
-        <v>1.551821723317634</v>
+        <v>1.516777037287529</v>
       </c>
     </row>
     <row r="911" spans="1:3">
@@ -10398,7 +10398,7 @@
         <v>1.455855855855856</v>
       </c>
       <c r="C911">
-        <v>1.558635770476438</v>
+        <v>1.523545446593255</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -10409,7 +10409,7 @@
         <v>1.457457457457457</v>
       </c>
       <c r="C912">
-        <v>1.565468261151637</v>
+        <v>1.530332299607197</v>
       </c>
     </row>
     <row r="913" spans="1:3">
@@ -10420,7 +10420,7 @@
         <v>1.459059059059059</v>
       </c>
       <c r="C913">
-        <v>1.572319219993108</v>
+        <v>1.537137620979231</v>
       </c>
     </row>
     <row r="914" spans="1:3">
@@ -10431,7 +10431,7 @@
         <v>1.460660660660661</v>
       </c>
       <c r="C914">
-        <v>1.579188671650725</v>
+        <v>1.543961435359232</v>
       </c>
     </row>
     <row r="915" spans="1:3">
@@ -10442,7 +10442,7 @@
         <v>1.462262262262262</v>
       </c>
       <c r="C915">
-        <v>1.586076640774365</v>
+        <v>1.550803767397076</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -10453,7 +10453,7 @@
         <v>1.463863863863864</v>
       </c>
       <c r="C916">
-        <v>1.592983152013904</v>
+        <v>1.557664641742639</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -10464,7 +10464,7 @@
         <v>1.465465465465466</v>
       </c>
       <c r="C917">
-        <v>1.599908230019216</v>
+        <v>1.564544083045795</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -10475,7 +10475,7 @@
         <v>1.467067067067067</v>
       </c>
       <c r="C918">
-        <v>1.606851899440178</v>
+        <v>1.571442115956422</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -10486,7 +10486,7 @@
         <v>1.468668668668669</v>
       </c>
       <c r="C919">
-        <v>1.613814184926666</v>
+        <v>1.578358765124395</v>
       </c>
     </row>
     <row r="920" spans="1:3">
@@ -10497,7 +10497,7 @@
         <v>1.47027027027027</v>
       </c>
       <c r="C920">
-        <v>1.620795111128554</v>
+        <v>1.585294055199589</v>
       </c>
     </row>
     <row r="921" spans="1:3">
@@ -10508,7 +10508,7 @@
         <v>1.471871871871872</v>
       </c>
       <c r="C921">
-        <v>1.62779470269572</v>
+        <v>1.592248010831881</v>
       </c>
     </row>
     <row r="922" spans="1:3">
@@ -10519,7 +10519,7 @@
         <v>1.473473473473474</v>
       </c>
       <c r="C922">
-        <v>1.634812984278038</v>
+        <v>1.599220656671145</v>
       </c>
     </row>
     <row r="923" spans="1:3">
@@ -10530,7 +10530,7 @@
         <v>1.475075075075075</v>
       </c>
       <c r="C923">
-        <v>1.641849980525385</v>
+        <v>1.606212017367258</v>
       </c>
     </row>
     <row r="924" spans="1:3">
@@ -10541,7 +10541,7 @@
         <v>1.476676676676677</v>
       </c>
       <c r="C924">
-        <v>1.648905716087635</v>
+        <v>1.613222117570095</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -10552,7 +10552,7 @@
         <v>1.478278278278278</v>
       </c>
       <c r="C925">
-        <v>1.655980215614665</v>
+        <v>1.620250981929532</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -10563,7 +10563,7 @@
         <v>1.47987987987988</v>
       </c>
       <c r="C926">
-        <v>1.66307350375635</v>
+        <v>1.627298635095445</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -10574,7 +10574,7 @@
         <v>1.481481481481482</v>
       </c>
       <c r="C927">
-        <v>1.670185605162567</v>
+        <v>1.634365101717709</v>
       </c>
     </row>
     <row r="928" spans="1:3">
@@ -10585,7 +10585,7 @@
         <v>1.483083083083083</v>
       </c>
       <c r="C928">
-        <v>1.67731654448319</v>
+        <v>1.641450406446199</v>
       </c>
     </row>
     <row r="929" spans="1:3">
@@ -10596,7 +10596,7 @@
         <v>1.484684684684685</v>
       </c>
       <c r="C929">
-        <v>1.684466346368096</v>
+        <v>1.648554573930794</v>
       </c>
     </row>
     <row r="930" spans="1:3">
@@ -10607,7 +10607,7 @@
         <v>1.486286286286286</v>
       </c>
       <c r="C930">
-        <v>1.691635035467159</v>
+        <v>1.655677628821366</v>
       </c>
     </row>
     <row r="931" spans="1:3">
@@ -10618,7 +10618,7 @@
         <v>1.487887887887888</v>
       </c>
       <c r="C931">
-        <v>1.698822636430257</v>
+        <v>1.662819595767792</v>
       </c>
     </row>
     <row r="932" spans="1:3">
@@ -10629,7 +10629,7 @@
         <v>1.489489489489489</v>
       </c>
       <c r="C932">
-        <v>1.706029173907263</v>
+        <v>1.669980499419948</v>
       </c>
     </row>
     <row r="933" spans="1:3">
@@ -10640,7 +10640,7 @@
         <v>1.491091091091091</v>
       </c>
       <c r="C933">
-        <v>1.713254672548056</v>
+        <v>1.67716036442771</v>
       </c>
     </row>
     <row r="934" spans="1:3">
@@ -10651,7 +10651,7 @@
         <v>1.492692692692693</v>
       </c>
       <c r="C934">
-        <v>1.72049915700251</v>
+        <v>1.684359215440953</v>
       </c>
     </row>
     <row r="935" spans="1:3">
@@ -10662,7 +10662,7 @@
         <v>1.494294294294294</v>
       </c>
       <c r="C935">
-        <v>1.7277626519205</v>
+        <v>1.691577077109554</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -10673,7 +10673,7 @@
         <v>1.495895895895896</v>
       </c>
       <c r="C936">
-        <v>1.735045181951903</v>
+        <v>1.698813974083387</v>
       </c>
     </row>
     <row r="937" spans="1:3">
@@ -10684,7 +10684,7 @@
         <v>1.497497497497497</v>
       </c>
       <c r="C937">
-        <v>1.742346771746593</v>
+        <v>1.706069931012328</v>
       </c>
     </row>
     <row r="938" spans="1:3">
@@ -10695,7 +10695,7 @@
         <v>1.499099099099099</v>
       </c>
       <c r="C938">
-        <v>1.749667445954448</v>
+        <v>1.713344972546254</v>
       </c>
     </row>
     <row r="939" spans="1:3">
@@ -10706,7 +10706,7 @@
         <v>1.500700700700701</v>
       </c>
       <c r="C939">
-        <v>1.757007229225342</v>
+        <v>1.720639123335039</v>
       </c>
     </row>
     <row r="940" spans="1:3">
@@ -10717,7 +10717,7 @@
         <v>1.502302302302302</v>
       </c>
       <c r="C940">
-        <v>1.764366146209151</v>
+        <v>1.72795240802856</v>
       </c>
     </row>
     <row r="941" spans="1:3">
@@ -10728,7 +10728,7 @@
         <v>1.503903903903904</v>
       </c>
       <c r="C941">
-        <v>1.771744221555751</v>
+        <v>1.735284851276692</v>
       </c>
     </row>
     <row r="942" spans="1:3">
@@ -10739,7 +10739,7 @@
         <v>1.505505505505506</v>
       </c>
       <c r="C942">
-        <v>1.779141479915018</v>
+        <v>1.742636477729311</v>
       </c>
     </row>
     <row r="943" spans="1:3">
@@ -10750,7 +10750,7 @@
         <v>1.507107107107107</v>
       </c>
       <c r="C943">
-        <v>1.786557945936827</v>
+        <v>1.750007312036293</v>
       </c>
     </row>
     <row r="944" spans="1:3">
@@ -10761,7 +10761,7 @@
         <v>1.508708708708709</v>
       </c>
       <c r="C944">
-        <v>1.793993644271054</v>
+        <v>1.757397378847512</v>
       </c>
     </row>
     <row r="945" spans="1:3">
@@ -10772,7 +10772,7 @@
         <v>1.51031031031031</v>
       </c>
       <c r="C945">
-        <v>1.801448599567575</v>
+        <v>1.764806702812846</v>
       </c>
     </row>
     <row r="946" spans="1:3">
@@ -10783,7 +10783,7 @@
         <v>1.511911911911912</v>
       </c>
       <c r="C946">
-        <v>1.808922836476264</v>
+        <v>1.77223530858217</v>
       </c>
     </row>
     <row r="947" spans="1:3">
@@ -10794,7 +10794,7 @@
         <v>1.513513513513514</v>
       </c>
       <c r="C947">
-        <v>1.816416379647</v>
+        <v>1.779683220805359</v>
       </c>
     </row>
     <row r="948" spans="1:3">
@@ -10805,7 +10805,7 @@
         <v>1.515115115115115</v>
       </c>
       <c r="C948">
-        <v>1.823929253729655</v>
+        <v>1.787150464132288</v>
       </c>
     </row>
     <row r="949" spans="1:3">
@@ -10816,7 +10816,7 @@
         <v>1.516716716716717</v>
       </c>
       <c r="C949">
-        <v>1.831461483374108</v>
+        <v>1.794637063212836</v>
       </c>
     </row>
     <row r="950" spans="1:3">
@@ -10827,7 +10827,7 @@
         <v>1.518318318318318</v>
       </c>
       <c r="C950">
-        <v>1.839013093230233</v>
+        <v>1.802143042696875</v>
       </c>
     </row>
     <row r="951" spans="1:3">
@@ -10838,7 +10838,7 @@
         <v>1.51991991991992</v>
       </c>
       <c r="C951">
-        <v>1.846584107947906</v>
+        <v>1.809668427234283</v>
       </c>
     </row>
     <row r="952" spans="1:3">
@@ -10849,7 +10849,7 @@
         <v>1.521521521521522</v>
       </c>
       <c r="C952">
-        <v>1.854174552177002</v>
+        <v>1.817213241474935</v>
       </c>
     </row>
     <row r="953" spans="1:3">
@@ -10860,7 +10860,7 @@
         <v>1.523123123123123</v>
       </c>
       <c r="C953">
-        <v>1.861784450567398</v>
+        <v>1.824777510068706</v>
       </c>
     </row>
     <row r="954" spans="1:3">
@@ -10871,7 +10871,7 @@
         <v>1.524724724724725</v>
       </c>
       <c r="C954">
-        <v>1.869413827768968</v>
+        <v>1.832361257665473</v>
       </c>
     </row>
     <row r="955" spans="1:3">
@@ -10882,7 +10882,7 @@
         <v>1.526326326326326</v>
       </c>
       <c r="C955">
-        <v>1.87706270843159</v>
+        <v>1.83996450891511</v>
       </c>
     </row>
     <row r="956" spans="1:3">
@@ -10893,7 +10893,7 @@
         <v>1.527927927927928</v>
       </c>
       <c r="C956">
-        <v>1.884731117205137</v>
+        <v>1.847587288467494</v>
       </c>
     </row>
     <row r="957" spans="1:3">
@@ -10904,7 +10904,7 @@
         <v>1.52952952952953</v>
       </c>
       <c r="C957">
-        <v>1.892419078739487</v>
+        <v>1.855229620972501</v>
       </c>
     </row>
     <row r="958" spans="1:3">
@@ -10915,7 +10915,7 @@
         <v>1.531131131131131</v>
       </c>
       <c r="C958">
-        <v>1.900126617684515</v>
+        <v>1.862891531080006</v>
       </c>
     </row>
     <row r="959" spans="1:3">
@@ -10926,7 +10926,7 @@
         <v>1.532732732732733</v>
       </c>
       <c r="C959">
-        <v>1.907853758690095</v>
+        <v>1.870573043439884</v>
       </c>
     </row>
     <row r="960" spans="1:3">
@@ -10937,7 +10937,7 @@
         <v>1.534334334334334</v>
       </c>
       <c r="C960">
-        <v>1.915600526406105</v>
+        <v>1.878274182702012</v>
       </c>
     </row>
     <row r="961" spans="1:3">
@@ -10948,7 +10948,7 @@
         <v>1.535935935935936</v>
       </c>
       <c r="C961">
-        <v>1.923366945482421</v>
+        <v>1.885994973516266</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -10959,7 +10959,7 @@
         <v>1.537537537537538</v>
       </c>
       <c r="C962">
-        <v>1.931153040568917</v>
+        <v>1.89373544053252</v>
       </c>
     </row>
     <row r="963" spans="1:3">
@@ -10970,7 +10970,7 @@
         <v>1.539139139139139</v>
       </c>
       <c r="C963">
-        <v>1.938958836315469</v>
+        <v>1.901495608400651</v>
       </c>
     </row>
     <row r="964" spans="1:3">
@@ -10981,7 +10981,7 @@
         <v>1.540740740740741</v>
       </c>
       <c r="C964">
-        <v>1.946784357371953</v>
+        <v>1.909275501770535</v>
       </c>
     </row>
     <row r="965" spans="1:3">
@@ -10992,7 +10992,7 @@
         <v>1.542342342342342</v>
       </c>
       <c r="C965">
-        <v>1.954629628388246</v>
+        <v>1.917075145292046</v>
       </c>
     </row>
     <row r="966" spans="1:3">
@@ -11003,7 +11003,7 @@
         <v>1.543943943943944</v>
       </c>
       <c r="C966">
-        <v>1.962494674014221</v>
+        <v>1.924894563615061</v>
       </c>
     </row>
     <row r="967" spans="1:3">
@@ -11014,7 +11014,7 @@
         <v>1.545545545545546</v>
       </c>
       <c r="C967">
-        <v>1.970379518899756</v>
+        <v>1.932733781389457</v>
       </c>
     </row>
     <row r="968" spans="1:3">
@@ -11025,7 +11025,7 @@
         <v>1.547147147147147</v>
       </c>
       <c r="C968">
-        <v>1.978284187694726</v>
+        <v>1.940592823265106</v>
       </c>
     </row>
     <row r="969" spans="1:3">
@@ -11036,7 +11036,7 @@
         <v>1.548748748748749</v>
       </c>
       <c r="C969">
-        <v>1.986208705049006</v>
+        <v>1.948471713891887</v>
       </c>
     </row>
     <row r="970" spans="1:3">
@@ -11047,7 +11047,7 @@
         <v>1.55035035035035</v>
       </c>
       <c r="C970">
-        <v>1.994153095612472</v>
+        <v>1.956370477919674</v>
       </c>
     </row>
     <row r="971" spans="1:3">
@@ -11058,7 +11058,7 @@
         <v>1.551951951951952</v>
       </c>
       <c r="C971">
-        <v>2.002117384035001</v>
+        <v>1.964289139998344</v>
       </c>
     </row>
     <row r="972" spans="1:3">
@@ -11069,7 +11069,7 @@
         <v>1.553553553553554</v>
       </c>
       <c r="C972">
-        <v>2.010101594966467</v>
+        <v>1.972227724777771</v>
       </c>
     </row>
     <row r="973" spans="1:3">
@@ -11080,7 +11080,7 @@
         <v>1.555155155155155</v>
       </c>
       <c r="C973">
-        <v>2.018105753056747</v>
+        <v>1.980186256907833</v>
       </c>
     </row>
     <row r="974" spans="1:3">
@@ -11091,7 +11091,7 @@
         <v>1.556756756756757</v>
       </c>
       <c r="C974">
-        <v>2.026129882955715</v>
+        <v>1.988164761038403</v>
       </c>
     </row>
     <row r="975" spans="1:3">
@@ -11102,7 +11102,7 @@
         <v>1.558358358358358</v>
       </c>
       <c r="C975">
-        <v>2.034174009313248</v>
+        <v>1.996163261819359</v>
       </c>
     </row>
     <row r="976" spans="1:3">
@@ -11113,7 +11113,7 @@
         <v>1.55995995995996</v>
       </c>
       <c r="C976">
-        <v>2.042238156779222</v>
+        <v>2.004181783900576</v>
       </c>
     </row>
     <row r="977" spans="1:3">
@@ -11124,7 +11124,7 @@
         <v>1.561561561561562</v>
       </c>
       <c r="C977">
-        <v>2.050322350003511</v>
+        <v>2.012220351931929</v>
       </c>
     </row>
     <row r="978" spans="1:3">
@@ -11135,7 +11135,7 @@
         <v>1.563163163163163</v>
       </c>
       <c r="C978">
-        <v>2.058426613635993</v>
+        <v>2.020278990563293</v>
       </c>
     </row>
     <row r="979" spans="1:3">
@@ -11146,7 +11146,7 @@
         <v>1.564764764764765</v>
       </c>
       <c r="C979">
-        <v>2.066550972326543</v>
+        <v>2.028357724444547</v>
       </c>
     </row>
     <row r="980" spans="1:3">
@@ -11157,7 +11157,7 @@
         <v>1.566366366366367</v>
       </c>
       <c r="C980">
-        <v>2.074695450725036</v>
+        <v>2.036456578225564</v>
       </c>
     </row>
     <row r="981" spans="1:3">
@@ -11168,7 +11168,7 @@
         <v>1.567967967967968</v>
       </c>
       <c r="C981">
-        <v>2.082860073481347</v>
+        <v>2.044575576556219</v>
       </c>
     </row>
     <row r="982" spans="1:3">
@@ -11179,7 +11179,7 @@
         <v>1.56956956956957</v>
       </c>
       <c r="C982">
-        <v>2.091044865245353</v>
+        <v>2.05271474408639</v>
       </c>
     </row>
     <row r="983" spans="1:3">
@@ -11190,7 +11190,7 @@
         <v>1.571171171171171</v>
       </c>
       <c r="C983">
-        <v>2.09924985066693</v>
+        <v>2.060874105465952</v>
       </c>
     </row>
     <row r="984" spans="1:3">
@@ -11201,7 +11201,7 @@
         <v>1.572772772772773</v>
       </c>
       <c r="C984">
-        <v>2.107475054395953</v>
+        <v>2.06905368534478</v>
       </c>
     </row>
     <row r="985" spans="1:3">
@@ -11212,7 +11212,7 @@
         <v>1.574374374374375</v>
       </c>
       <c r="C985">
-        <v>2.115720501082297</v>
+        <v>2.07725350837275</v>
       </c>
     </row>
     <row r="986" spans="1:3">
@@ -11223,7 +11223,7 @@
         <v>1.575975975975976</v>
       </c>
       <c r="C986">
-        <v>2.123986215375838</v>
+        <v>2.085473599199736</v>
       </c>
     </row>
     <row r="987" spans="1:3">
@@ -11234,7 +11234,7 @@
         <v>1.577577577577578</v>
       </c>
       <c r="C987">
-        <v>2.132272221926454</v>
+        <v>2.093713982475618</v>
       </c>
     </row>
     <row r="988" spans="1:3">
@@ -11245,7 +11245,7 @@
         <v>1.579179179179179</v>
       </c>
       <c r="C988">
-        <v>2.140578545384017</v>
+        <v>2.101974682850268</v>
       </c>
     </row>
     <row r="989" spans="1:3">
@@ -11256,7 +11256,7 @@
         <v>1.580780780780781</v>
       </c>
       <c r="C989">
-        <v>2.148905210398406</v>
+        <v>2.110255724973564</v>
       </c>
     </row>
     <row r="990" spans="1:3">
@@ -11267,7 +11267,7 @@
         <v>1.582382382382382</v>
       </c>
       <c r="C990">
-        <v>2.157252241619495</v>
+        <v>2.11855713349538</v>
       </c>
     </row>
     <row r="991" spans="1:3">
@@ -11278,7 +11278,7 @@
         <v>1.583983983983984</v>
       </c>
       <c r="C991">
-        <v>2.165619663697159</v>
+        <v>2.126878933065592</v>
       </c>
     </row>
     <row r="992" spans="1:3">
@@ -11289,7 +11289,7 @@
         <v>1.585585585585586</v>
       </c>
       <c r="C992">
-        <v>2.174007501281277</v>
+        <v>2.135221148334077</v>
       </c>
     </row>
     <row r="993" spans="1:3">
@@ -11300,7 +11300,7 @@
         <v>1.587187187187187</v>
       </c>
       <c r="C993">
-        <v>2.182415779021721</v>
+        <v>2.143583803950709</v>
       </c>
     </row>
     <row r="994" spans="1:3">
@@ -11311,7 +11311,7 @@
         <v>1.588788788788789</v>
       </c>
       <c r="C994">
-        <v>2.190844521568368</v>
+        <v>2.151966924565365</v>
       </c>
     </row>
     <row r="995" spans="1:3">
@@ -11322,7 +11322,7 @@
         <v>1.59039039039039</v>
       </c>
       <c r="C995">
-        <v>2.199293753571094</v>
+        <v>2.160370534827919</v>
       </c>
     </row>
     <row r="996" spans="1:3">
@@ -11333,7 +11333,7 @@
         <v>1.591991991991992</v>
       </c>
       <c r="C996">
-        <v>2.207763499679775</v>
+        <v>2.168794659388249</v>
       </c>
     </row>
     <row r="997" spans="1:3">
@@ -11344,7 +11344,7 @@
         <v>1.593593593593594</v>
       </c>
       <c r="C997">
-        <v>2.216253784544286</v>
+        <v>2.177239322896229</v>
       </c>
     </row>
     <row r="998" spans="1:3">
@@ -11355,7 +11355,7 @@
         <v>1.595195195195195</v>
       </c>
       <c r="C998">
-        <v>2.224764632814503</v>
+        <v>2.185704550001736</v>
       </c>
     </row>
     <row r="999" spans="1:3">
@@ -11366,7 +11366,7 @@
         <v>1.596796796796797</v>
       </c>
       <c r="C999">
-        <v>2.2332960691403</v>
+        <v>2.194190365354643</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
@@ -11377,7 +11377,7 @@
         <v>1.598398398398398</v>
       </c>
       <c r="C1000">
-        <v>2.241848118171556</v>
+        <v>2.202696793604829</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
@@ -11388,7 +11388,7 @@
         <v>1.6</v>
       </c>
       <c r="C1001">
-        <v>2.250420804558145</v>
+        <v>2.211223859402168</v>
       </c>
     </row>
   </sheetData>
